--- a/PRUEBA.xlsx
+++ b/PRUEBA.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd462ebc342de500/Desktop/JUANES/Trabajos/Mamá/ComparaciónExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10500" documentId="8_{9DE51C3F-DA32-4FD4-8E28-D03688DE8653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A7F0A1B-2707-4932-AFFF-17C498888F7F}"/>
+  <xr:revisionPtr revIDLastSave="25783" documentId="8_{9DE51C3F-DA32-4FD4-8E28-D03688DE8653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F367172F-AE20-4A77-9646-1113A6D3858B}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="RECIBOS" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja1!$A$3:$P$1037</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$3:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$3:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja2!$A$3:$P$1037</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RECIBOS!$A$3:$E$1063</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -9566,7 +9566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9793,9 +9793,6 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -9819,6 +9816,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -10166,8 +10166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1063"/>
   <sheetViews>
-    <sheetView topLeftCell="C271" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G645" sqref="G645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.296875" defaultRowHeight="13"/>
@@ -10181,23 +10181,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -10229,7 +10229,7 @@
       <c r="D4" s="48">
         <v>0</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="58">
         <v>-124537361</v>
       </c>
     </row>
@@ -10246,7 +10246,7 @@
       <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="30">
         <v>-118387642</v>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       <c r="D6" s="19">
         <v>0</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="30">
         <v>-105856029</v>
       </c>
     </row>
@@ -10297,7 +10297,7 @@
       <c r="D8" s="19">
         <v>0</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="30">
         <v>-64225000</v>
       </c>
     </row>
@@ -10314,7 +10314,7 @@
       <c r="D9" s="19">
         <v>0</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="30">
         <v>-54914617</v>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       <c r="D10" s="14">
         <v>0</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="30">
         <v>-53271850</v>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
       <c r="D11" s="19">
         <v>0</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="30">
         <v>-48896591</v>
       </c>
     </row>
@@ -10365,7 +10365,7 @@
       <c r="D12" s="19">
         <v>0</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="30">
         <v>-43930851</v>
       </c>
     </row>
@@ -10382,7 +10382,7 @@
       <c r="D13" s="14">
         <v>0</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="30">
         <v>-21104267</v>
       </c>
     </row>
@@ -10399,7 +10399,7 @@
       <c r="D14" s="19">
         <v>0</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="30">
         <v>-20000000</v>
       </c>
     </row>
@@ -10416,7 +10416,7 @@
       <c r="D15" s="19">
         <v>0</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="30">
         <v>-14359000</v>
       </c>
     </row>
@@ -10433,7 +10433,7 @@
       <c r="D16" s="19">
         <v>0</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="30">
         <v>-11592170</v>
       </c>
     </row>
@@ -10450,7 +10450,7 @@
       <c r="D17" s="14">
         <v>0</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="30">
         <v>-8338900</v>
       </c>
     </row>
@@ -10467,7 +10467,7 @@
       <c r="D18" s="19">
         <v>0</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="30">
         <v>-6739000</v>
       </c>
     </row>
@@ -10484,7 +10484,7 @@
       <c r="D19" s="19">
         <v>0</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="30">
         <v>-5097052</v>
       </c>
     </row>
@@ -10501,7 +10501,7 @@
       <c r="D20" s="19">
         <v>0</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="30">
         <v>-4782875</v>
       </c>
     </row>
@@ -10518,7 +10518,7 @@
       <c r="D21" s="14">
         <v>0</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="30">
         <v>-4705166</v>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       <c r="D22" s="14">
         <v>0</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="30">
         <v>-4254384</v>
       </c>
     </row>
@@ -10569,7 +10569,7 @@
       <c r="D24" s="14">
         <v>0</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="30">
         <v>-2148010</v>
       </c>
     </row>
@@ -10586,7 +10586,7 @@
       <c r="D25" s="19">
         <v>0</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="30">
         <v>-2080401</v>
       </c>
     </row>
@@ -10603,7 +10603,7 @@
       <c r="D26" s="14">
         <v>0</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="30">
         <v>-2046248</v>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       <c r="D27" s="19">
         <v>0</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="30">
         <v>-1973886</v>
       </c>
     </row>
@@ -10637,7 +10637,7 @@
       <c r="D28" s="14">
         <v>0</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="30">
         <v>-1853894</v>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       <c r="D30" s="19">
         <v>0</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="30">
         <v>-1758073</v>
       </c>
     </row>
@@ -10688,7 +10688,7 @@
       <c r="D31" s="14">
         <v>0</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="30">
         <v>-1757004</v>
       </c>
     </row>
@@ -10705,7 +10705,7 @@
       <c r="D32" s="14">
         <v>0</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="30">
         <v>-1590430</v>
       </c>
     </row>
@@ -10722,7 +10722,7 @@
       <c r="D33" s="19">
         <v>0</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="30">
         <v>-1527385</v>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       <c r="D34" s="19">
         <v>0</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="30">
         <v>-1462280</v>
       </c>
     </row>
@@ -10756,7 +10756,7 @@
       <c r="D35" s="14">
         <v>0</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="30">
         <v>-1456234</v>
       </c>
     </row>
@@ -10773,7 +10773,7 @@
       <c r="D36" s="19">
         <v>0</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="30">
         <v>-1444688</v>
       </c>
     </row>
@@ -10790,7 +10790,7 @@
       <c r="D37" s="14">
         <v>0</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="30">
         <v>-1246783</v>
       </c>
     </row>
@@ -10807,7 +10807,7 @@
       <c r="D38" s="19">
         <v>0</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="30">
         <v>-1223323</v>
       </c>
     </row>
@@ -10824,7 +10824,7 @@
       <c r="D39" s="14">
         <v>0</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="30">
         <v>-1153300</v>
       </c>
     </row>
@@ -10841,7 +10841,7 @@
       <c r="D40" s="14">
         <v>0</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="30">
         <v>-1048778</v>
       </c>
     </row>
@@ -10858,7 +10858,7 @@
       <c r="D41" s="19">
         <v>0</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="30">
         <v>-1042971</v>
       </c>
     </row>
@@ -10875,7 +10875,7 @@
       <c r="D42" s="19">
         <v>0</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="30">
         <v>-1012297</v>
       </c>
     </row>
@@ -10892,7 +10892,7 @@
       <c r="D43" s="19">
         <v>0</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="30">
         <v>-882470</v>
       </c>
     </row>
@@ -10909,7 +10909,7 @@
       <c r="D44" s="14">
         <v>0</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="30">
         <v>-874753</v>
       </c>
     </row>
@@ -10926,7 +10926,7 @@
       <c r="D45" s="14">
         <v>0</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="30">
         <v>-838224</v>
       </c>
     </row>
@@ -10943,7 +10943,7 @@
       <c r="D46" s="14">
         <v>0</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="30">
         <v>-806114</v>
       </c>
     </row>
@@ -10960,7 +10960,7 @@
       <c r="D47" s="14">
         <v>0</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="30">
         <v>-795030</v>
       </c>
     </row>
@@ -10977,7 +10977,7 @@
       <c r="D48" s="14">
         <v>0</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="30">
         <v>-793071</v>
       </c>
     </row>
@@ -10994,7 +10994,7 @@
       <c r="D49" s="14">
         <v>0</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="30">
         <v>-781677</v>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       <c r="D50" s="14">
         <v>0</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="30">
         <v>-768138</v>
       </c>
     </row>
@@ -11028,7 +11028,7 @@
       <c r="D51" s="19">
         <v>0</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="30">
         <v>-763141</v>
       </c>
     </row>
@@ -11045,7 +11045,7 @@
       <c r="D52" s="14">
         <v>0</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="30">
         <v>-757436</v>
       </c>
     </row>
@@ -11062,7 +11062,7 @@
       <c r="D53" s="14">
         <v>0</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="30">
         <v>-726606</v>
       </c>
     </row>
@@ -11079,7 +11079,7 @@
       <c r="D54" s="14">
         <v>0</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="30">
         <v>-726324</v>
       </c>
     </row>
@@ -11096,7 +11096,7 @@
       <c r="D55" s="19">
         <v>0</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="30">
         <v>-721530</v>
       </c>
     </row>
@@ -11113,7 +11113,7 @@
       <c r="D56" s="14">
         <v>0</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="30">
         <v>-710747</v>
       </c>
     </row>
@@ -11130,7 +11130,7 @@
       <c r="D57" s="19">
         <v>0</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="30">
         <v>-701812</v>
       </c>
     </row>
@@ -11147,7 +11147,7 @@
       <c r="D58" s="19">
         <v>0</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="30">
         <v>-685075</v>
       </c>
     </row>
@@ -11164,7 +11164,7 @@
       <c r="D59" s="19">
         <v>0</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="30">
         <v>-683748</v>
       </c>
     </row>
@@ -11181,7 +11181,7 @@
       <c r="D60" s="19">
         <v>0</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E60" s="30">
         <v>-682960</v>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
       <c r="D61" s="14">
         <v>0</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="30">
         <v>-663141</v>
       </c>
     </row>
@@ -11215,7 +11215,7 @@
       <c r="D62" s="19">
         <v>0</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E62" s="30">
         <v>-662166</v>
       </c>
     </row>
@@ -11232,7 +11232,7 @@
       <c r="D63" s="19">
         <v>0</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E63" s="30">
         <v>-658688</v>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       <c r="D64" s="19">
         <v>0</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E64" s="30">
         <v>-657436</v>
       </c>
     </row>
@@ -11266,7 +11266,7 @@
       <c r="D65" s="19">
         <v>0</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E65" s="30">
         <v>-646920</v>
       </c>
     </row>
@@ -11283,7 +11283,7 @@
       <c r="D66" s="14">
         <v>0</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="30">
         <v>-639621</v>
       </c>
     </row>
@@ -11317,7 +11317,7 @@
       <c r="D68" s="14">
         <v>0</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="30">
         <v>-633822</v>
       </c>
     </row>
@@ -11334,7 +11334,7 @@
       <c r="D69" s="19">
         <v>0</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="30">
         <v>-616693</v>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       <c r="D70" s="14">
         <v>0</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="30">
         <v>-599713</v>
       </c>
     </row>
@@ -11368,7 +11368,7 @@
       <c r="D71" s="14">
         <v>0</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="30">
         <v>-519875</v>
       </c>
     </row>
@@ -11402,7 +11402,7 @@
       <c r="D73" s="19">
         <v>0</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="30">
         <v>-476606</v>
       </c>
     </row>
@@ -11436,7 +11436,7 @@
       <c r="D75" s="19">
         <v>0</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E75" s="30">
         <v>-470836</v>
       </c>
     </row>
@@ -11453,7 +11453,7 @@
       <c r="D76" s="14">
         <v>0</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="30">
         <v>-461222</v>
       </c>
     </row>
@@ -11470,7 +11470,7 @@
       <c r="D77" s="19">
         <v>0</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E77" s="30">
         <v>-450181</v>
       </c>
     </row>
@@ -11487,7 +11487,7 @@
       <c r="D78" s="14">
         <v>0</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="30">
         <v>-441655</v>
       </c>
     </row>
@@ -11504,7 +11504,7 @@
       <c r="D79" s="14">
         <v>0</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="30">
         <v>-429487.66</v>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       <c r="D80" s="19">
         <v>0</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E80" s="30">
         <v>-360099</v>
       </c>
     </row>
@@ -11555,7 +11555,7 @@
       <c r="D82" s="14">
         <v>0</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="30">
         <v>-325376</v>
       </c>
     </row>
@@ -11572,7 +11572,7 @@
       <c r="D83" s="19">
         <v>0</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E83" s="30">
         <v>-311056</v>
       </c>
     </row>
@@ -11657,7 +11657,7 @@
       <c r="D88" s="14">
         <v>0</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="30">
         <v>-158454</v>
       </c>
     </row>
@@ -11674,7 +11674,7 @@
       <c r="D89" s="19">
         <v>0</v>
       </c>
-      <c r="E89" s="22">
+      <c r="E89" s="30">
         <v>-150000</v>
       </c>
     </row>
@@ -11827,7 +11827,7 @@
       <c r="D98" s="14">
         <v>0</v>
       </c>
-      <c r="E98" s="15">
+      <c r="E98" s="30">
         <v>-48074</v>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       <c r="D100" s="19">
         <v>0</v>
       </c>
-      <c r="E100" s="22">
+      <c r="E100" s="30">
         <v>-31290</v>
       </c>
     </row>
@@ -18440,7 +18440,7 @@
       <c r="D487" s="19">
         <v>0</v>
       </c>
-      <c r="E487" s="50">
+      <c r="E487" s="49">
         <v>150000</v>
       </c>
     </row>
@@ -20922,7 +20922,7 @@
       <c r="D633" s="14">
         <v>0</v>
       </c>
-      <c r="E633" s="50">
+      <c r="E633" s="49">
         <v>220000</v>
       </c>
     </row>
@@ -28206,23 +28206,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -44114,8 +44114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBE7203-6693-475B-ABAA-142FD3415D07}">
   <dimension ref="A1:P1114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K139" workbookViewId="0">
-      <selection activeCell="N1039" sqref="N1039"/>
+    <sheetView topLeftCell="J855" workbookViewId="0">
+      <selection activeCell="O502" sqref="O502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13"/>
@@ -44139,44 +44139,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
     </row>
     <row r="2" spans="1:16" ht="14.5">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="32" t="s">
@@ -69122,7 +69122,9 @@
       <c r="N501" s="39">
         <v>237396</v>
       </c>
-      <c r="O501" s="39"/>
+      <c r="O501" s="39">
+        <v>0</v>
+      </c>
       <c r="P501" s="39">
         <v>0</v>
       </c>
@@ -90730,7 +90732,7 @@
     </row>
     <row r="934" spans="1:16">
       <c r="A934" s="36" t="s">
-        <v>206</v>
+        <v>1855</v>
       </c>
       <c r="B934" s="37" t="s">
         <v>118</v>
@@ -90739,22 +90741,22 @@
         <v>119</v>
       </c>
       <c r="D934" s="36" t="s">
-        <v>207</v>
+        <v>1856</v>
       </c>
       <c r="E934" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F934" s="38" t="s">
-        <v>200</v>
+        <v>1839</v>
       </c>
       <c r="G934" s="36" t="s">
-        <v>209</v>
+        <v>1857</v>
       </c>
       <c r="H934" s="36" t="s">
-        <v>209</v>
+        <v>1857</v>
       </c>
       <c r="I934" s="36" t="s">
-        <v>210</v>
+        <v>1858</v>
       </c>
       <c r="J934" s="38" t="s">
         <v>125</v>
@@ -90771,8 +90773,8 @@
       <c r="N934" s="39">
         <v>0</v>
       </c>
-      <c r="O934" s="39">
-        <v>53271850</v>
+      <c r="O934" s="59">
+        <v>124537361</v>
       </c>
       <c r="P934" s="39">
         <v>0</v>
@@ -90780,7 +90782,7 @@
     </row>
     <row r="935" spans="1:16">
       <c r="A935" s="36" t="s">
-        <v>211</v>
+        <v>1751</v>
       </c>
       <c r="B935" s="37" t="s">
         <v>118</v>
@@ -90789,22 +90791,22 @@
         <v>119</v>
       </c>
       <c r="D935" s="36" t="s">
-        <v>212</v>
+        <v>1752</v>
       </c>
       <c r="E935" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F935" s="38" t="s">
-        <v>200</v>
+        <v>1745</v>
       </c>
       <c r="G935" s="36" t="s">
-        <v>213</v>
+        <v>1753</v>
       </c>
       <c r="H935" s="36" t="s">
-        <v>213</v>
+        <v>1753</v>
       </c>
       <c r="I935" s="36" t="s">
-        <v>214</v>
+        <v>1754</v>
       </c>
       <c r="J935" s="38" t="s">
         <v>125</v>
@@ -90821,8 +90823,8 @@
       <c r="N935" s="39">
         <v>0</v>
       </c>
-      <c r="O935" s="39">
-        <v>105856029</v>
+      <c r="O935" s="59">
+        <v>118387642</v>
       </c>
       <c r="P935" s="39">
         <v>0</v>
@@ -90830,7 +90832,7 @@
     </row>
     <row r="936" spans="1:16">
       <c r="A936" s="36" t="s">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="B936" s="37" t="s">
         <v>118</v>
@@ -90839,22 +90841,22 @@
         <v>119</v>
       </c>
       <c r="D936" s="36" t="s">
-        <v>315</v>
+        <v>212</v>
       </c>
       <c r="E936" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F936" s="38" t="s">
-        <v>316</v>
+        <v>200</v>
       </c>
       <c r="G936" s="36" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="H936" s="36" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="I936" s="36" t="s">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="J936" s="38" t="s">
         <v>125</v>
@@ -90871,8 +90873,8 @@
       <c r="N936" s="39">
         <v>0</v>
       </c>
-      <c r="O936" s="39">
-        <v>4705166</v>
+      <c r="O936" s="59">
+        <v>105856029</v>
       </c>
       <c r="P936" s="39">
         <v>0</v>
@@ -90880,31 +90882,31 @@
     </row>
     <row r="937" spans="1:16">
       <c r="A937" s="36" t="s">
-        <v>425</v>
+        <v>2605</v>
       </c>
       <c r="B937" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C937" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D937" s="36" t="s">
-        <v>426</v>
+        <v>2606</v>
       </c>
       <c r="E937" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F937" s="38" t="s">
-        <v>422</v>
+        <v>2050</v>
       </c>
       <c r="G937" s="36" t="s">
-        <v>427</v>
+        <v>2607</v>
       </c>
       <c r="H937" s="36" t="s">
-        <v>427</v>
+        <v>2607</v>
       </c>
       <c r="I937" s="36" t="s">
-        <v>428</v>
+        <v>2608</v>
       </c>
       <c r="J937" s="38" t="s">
         <v>125</v>
@@ -90922,7 +90924,7 @@
         <v>0</v>
       </c>
       <c r="O937" s="39">
-        <v>48896591</v>
+        <v>65954812</v>
       </c>
       <c r="P937" s="39">
         <v>0</v>
@@ -90930,7 +90932,7 @@
     </row>
     <row r="938" spans="1:16">
       <c r="A938" s="36" t="s">
-        <v>544</v>
+        <v>849</v>
       </c>
       <c r="B938" s="37" t="s">
         <v>118</v>
@@ -90939,22 +90941,22 @@
         <v>119</v>
       </c>
       <c r="D938" s="36" t="s">
-        <v>545</v>
+        <v>850</v>
       </c>
       <c r="E938" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F938" s="38" t="s">
-        <v>546</v>
+        <v>846</v>
       </c>
       <c r="G938" s="36" t="s">
-        <v>547</v>
+        <v>851</v>
       </c>
       <c r="H938" s="36" t="s">
-        <v>547</v>
+        <v>851</v>
       </c>
       <c r="I938" s="36" t="s">
-        <v>548</v>
+        <v>852</v>
       </c>
       <c r="J938" s="38" t="s">
         <v>125</v>
@@ -90972,7 +90974,7 @@
         <v>0</v>
       </c>
       <c r="O938" s="39">
-        <v>48074</v>
+        <v>64391793</v>
       </c>
       <c r="P938" s="39">
         <v>0</v>
@@ -90980,7 +90982,7 @@
     </row>
     <row r="939" spans="1:16">
       <c r="A939" s="36" t="s">
-        <v>549</v>
+        <v>1049</v>
       </c>
       <c r="B939" s="37" t="s">
         <v>118</v>
@@ -90989,22 +90991,22 @@
         <v>119</v>
       </c>
       <c r="D939" s="36" t="s">
-        <v>550</v>
+        <v>1050</v>
       </c>
       <c r="E939" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F939" s="38" t="s">
-        <v>546</v>
+        <v>1047</v>
       </c>
       <c r="G939" s="36" t="s">
-        <v>551</v>
+        <v>1051</v>
       </c>
       <c r="H939" s="36" t="s">
-        <v>551</v>
+        <v>1051</v>
       </c>
       <c r="I939" s="36" t="s">
-        <v>548</v>
+        <v>1052</v>
       </c>
       <c r="J939" s="38" t="s">
         <v>125</v>
@@ -91021,8 +91023,8 @@
       <c r="N939" s="39">
         <v>0</v>
       </c>
-      <c r="O939" s="39">
-        <v>31290</v>
+      <c r="O939" s="59">
+        <v>64225000</v>
       </c>
       <c r="P939" s="39">
         <v>0</v>
@@ -91030,31 +91032,31 @@
     </row>
     <row r="940" spans="1:16">
       <c r="A940" s="36" t="s">
-        <v>552</v>
+        <v>2575</v>
       </c>
       <c r="B940" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C940" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D940" s="36" t="s">
-        <v>553</v>
+        <v>2576</v>
       </c>
       <c r="E940" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F940" s="38" t="s">
-        <v>546</v>
+        <v>846</v>
       </c>
       <c r="G940" s="36" t="s">
-        <v>554</v>
+        <v>2577</v>
       </c>
       <c r="H940" s="36" t="s">
-        <v>554</v>
+        <v>2577</v>
       </c>
       <c r="I940" s="36" t="s">
-        <v>548</v>
+        <v>1754</v>
       </c>
       <c r="J940" s="38" t="s">
         <v>125</v>
@@ -91072,7 +91074,7 @@
         <v>0</v>
       </c>
       <c r="O940" s="39">
-        <v>158454</v>
+        <v>62128875</v>
       </c>
       <c r="P940" s="39">
         <v>0</v>
@@ -91080,7 +91082,7 @@
     </row>
     <row r="941" spans="1:16">
       <c r="A941" s="36" t="s">
-        <v>555</v>
+        <v>1226</v>
       </c>
       <c r="B941" s="37" t="s">
         <v>118</v>
@@ -91089,22 +91091,22 @@
         <v>119</v>
       </c>
       <c r="D941" s="36" t="s">
-        <v>556</v>
+        <v>1227</v>
       </c>
       <c r="E941" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F941" s="38" t="s">
-        <v>546</v>
+        <v>1218</v>
       </c>
       <c r="G941" s="36" t="s">
-        <v>557</v>
+        <v>1228</v>
       </c>
       <c r="H941" s="36" t="s">
-        <v>557</v>
+        <v>1228</v>
       </c>
       <c r="I941" s="36" t="s">
-        <v>548</v>
+        <v>1229</v>
       </c>
       <c r="J941" s="38" t="s">
         <v>125</v>
@@ -91121,8 +91123,8 @@
       <c r="N941" s="39">
         <v>0</v>
       </c>
-      <c r="O941" s="39">
-        <v>311056</v>
+      <c r="O941" s="59">
+        <v>54914617</v>
       </c>
       <c r="P941" s="39">
         <v>0</v>
@@ -91130,7 +91132,7 @@
     </row>
     <row r="942" spans="1:16">
       <c r="A942" s="36" t="s">
-        <v>735</v>
+        <v>206</v>
       </c>
       <c r="B942" s="37" t="s">
         <v>118</v>
@@ -91139,22 +91141,22 @@
         <v>119</v>
       </c>
       <c r="D942" s="36" t="s">
-        <v>736</v>
+        <v>207</v>
       </c>
       <c r="E942" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F942" s="38" t="s">
-        <v>737</v>
+        <v>200</v>
       </c>
       <c r="G942" s="36" t="s">
-        <v>738</v>
+        <v>209</v>
       </c>
       <c r="H942" s="36" t="s">
-        <v>738</v>
+        <v>209</v>
       </c>
       <c r="I942" s="36" t="s">
-        <v>739</v>
+        <v>210</v>
       </c>
       <c r="J942" s="38" t="s">
         <v>125</v>
@@ -91171,8 +91173,8 @@
       <c r="N942" s="39">
         <v>0</v>
       </c>
-      <c r="O942" s="39">
-        <v>1853894</v>
+      <c r="O942" s="59">
+        <v>53271850</v>
       </c>
       <c r="P942" s="39">
         <v>0</v>
@@ -91180,7 +91182,7 @@
     </row>
     <row r="943" spans="1:16">
       <c r="A943" s="36" t="s">
-        <v>740</v>
+        <v>425</v>
       </c>
       <c r="B943" s="37" t="s">
         <v>118</v>
@@ -91189,22 +91191,22 @@
         <v>119</v>
       </c>
       <c r="D943" s="36" t="s">
-        <v>741</v>
+        <v>426</v>
       </c>
       <c r="E943" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F943" s="38" t="s">
-        <v>737</v>
+        <v>422</v>
       </c>
       <c r="G943" s="36" t="s">
-        <v>738</v>
+        <v>427</v>
       </c>
       <c r="H943" s="36" t="s">
-        <v>738</v>
+        <v>427</v>
       </c>
       <c r="I943" s="36" t="s">
-        <v>742</v>
+        <v>428</v>
       </c>
       <c r="J943" s="38" t="s">
         <v>125</v>
@@ -91221,8 +91223,8 @@
       <c r="N943" s="39">
         <v>0</v>
       </c>
-      <c r="O943" s="39">
-        <v>1757004</v>
+      <c r="O943" s="59">
+        <v>48896591</v>
       </c>
       <c r="P943" s="39">
         <v>0</v>
@@ -91230,31 +91232,31 @@
     </row>
     <row r="944" spans="1:16">
       <c r="A944" s="36" t="s">
-        <v>743</v>
+        <v>2850</v>
       </c>
       <c r="B944" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C944" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D944" s="36" t="s">
-        <v>744</v>
+        <v>2851</v>
       </c>
       <c r="E944" s="36" t="s">
-        <v>208</v>
+        <v>1887</v>
       </c>
       <c r="F944" s="38" t="s">
-        <v>737</v>
+        <v>2446</v>
       </c>
       <c r="G944" s="36" t="s">
-        <v>738</v>
+        <v>2525</v>
       </c>
       <c r="H944" s="36" t="s">
-        <v>738</v>
+        <v>2525</v>
       </c>
       <c r="I944" s="36" t="s">
-        <v>745</v>
+        <v>2531</v>
       </c>
       <c r="J944" s="38" t="s">
         <v>125</v>
@@ -91272,7 +91274,7 @@
         <v>0</v>
       </c>
       <c r="O944" s="39">
-        <v>1223323</v>
+        <v>45000000</v>
       </c>
       <c r="P944" s="39">
         <v>0</v>
@@ -91280,7 +91282,7 @@
     </row>
     <row r="945" spans="1:16">
       <c r="A945" s="36" t="s">
-        <v>746</v>
+        <v>2331</v>
       </c>
       <c r="B945" s="37" t="s">
         <v>118</v>
@@ -91289,22 +91291,22 @@
         <v>119</v>
       </c>
       <c r="D945" s="36" t="s">
-        <v>747</v>
+        <v>2332</v>
       </c>
       <c r="E945" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F945" s="38" t="s">
-        <v>737</v>
+        <v>2310</v>
       </c>
       <c r="G945" s="36" t="s">
-        <v>738</v>
+        <v>2333</v>
       </c>
       <c r="H945" s="36" t="s">
-        <v>738</v>
+        <v>2333</v>
       </c>
       <c r="I945" s="36" t="s">
-        <v>748</v>
+        <v>2334</v>
       </c>
       <c r="J945" s="38" t="s">
         <v>125</v>
@@ -91321,8 +91323,8 @@
       <c r="N945" s="39">
         <v>0</v>
       </c>
-      <c r="O945" s="39">
-        <v>1527385</v>
+      <c r="O945" s="59">
+        <v>43930851</v>
       </c>
       <c r="P945" s="39">
         <v>0</v>
@@ -91330,31 +91332,31 @@
     </row>
     <row r="946" spans="1:16">
       <c r="A946" s="36" t="s">
-        <v>749</v>
+        <v>2609</v>
       </c>
       <c r="B946" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C946" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D946" s="36" t="s">
-        <v>750</v>
+        <v>2610</v>
       </c>
       <c r="E946" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F946" s="38" t="s">
-        <v>737</v>
+        <v>2446</v>
       </c>
       <c r="G946" s="36" t="s">
-        <v>738</v>
+        <v>2611</v>
       </c>
       <c r="H946" s="36" t="s">
-        <v>738</v>
+        <v>2611</v>
       </c>
       <c r="I946" s="36" t="s">
-        <v>751</v>
+        <v>1858</v>
       </c>
       <c r="J946" s="38" t="s">
         <v>125</v>
@@ -91372,7 +91374,7 @@
         <v>0</v>
       </c>
       <c r="O946" s="39">
-        <v>685075</v>
+        <v>35733754</v>
       </c>
       <c r="P946" s="39">
         <v>0</v>
@@ -91380,31 +91382,31 @@
     </row>
     <row r="947" spans="1:16">
       <c r="A947" s="36" t="s">
-        <v>752</v>
+        <v>2578</v>
       </c>
       <c r="B947" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C947" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D947" s="36" t="s">
-        <v>753</v>
+        <v>2579</v>
       </c>
       <c r="E947" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F947" s="38" t="s">
-        <v>737</v>
+        <v>1218</v>
       </c>
       <c r="G947" s="36" t="s">
-        <v>738</v>
+        <v>2580</v>
       </c>
       <c r="H947" s="36" t="s">
-        <v>738</v>
+        <v>2580</v>
       </c>
       <c r="I947" s="36" t="s">
-        <v>754</v>
+        <v>2334</v>
       </c>
       <c r="J947" s="38" t="s">
         <v>125</v>
@@ -91422,7 +91424,7 @@
         <v>0</v>
       </c>
       <c r="O947" s="39">
-        <v>1590430</v>
+        <v>35727864</v>
       </c>
       <c r="P947" s="39">
         <v>0</v>
@@ -91430,31 +91432,31 @@
     </row>
     <row r="948" spans="1:16">
       <c r="A948" s="36" t="s">
-        <v>755</v>
+        <v>2860</v>
       </c>
       <c r="B948" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C948" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D948" s="36" t="s">
-        <v>756</v>
+        <v>2861</v>
       </c>
       <c r="E948" s="36" t="s">
-        <v>208</v>
+        <v>1887</v>
       </c>
       <c r="F948" s="38" t="s">
-        <v>737</v>
+        <v>2446</v>
       </c>
       <c r="G948" s="36" t="s">
-        <v>738</v>
+        <v>2525</v>
       </c>
       <c r="H948" s="36" t="s">
-        <v>738</v>
+        <v>2525</v>
       </c>
       <c r="I948" s="36" t="s">
-        <v>757</v>
+        <v>2526</v>
       </c>
       <c r="J948" s="38" t="s">
         <v>125</v>
@@ -91472,7 +91474,7 @@
         <v>0</v>
       </c>
       <c r="O948" s="39">
-        <v>1444688</v>
+        <v>25000000</v>
       </c>
       <c r="P948" s="39">
         <v>0</v>
@@ -91480,7 +91482,7 @@
     </row>
     <row r="949" spans="1:16">
       <c r="A949" s="36" t="s">
-        <v>758</v>
+        <v>2472</v>
       </c>
       <c r="B949" s="37" t="s">
         <v>118</v>
@@ -91489,22 +91491,22 @@
         <v>119</v>
       </c>
       <c r="D949" s="36" t="s">
-        <v>759</v>
+        <v>2473</v>
       </c>
       <c r="E949" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F949" s="38" t="s">
-        <v>737</v>
+        <v>2446</v>
       </c>
       <c r="G949" s="36" t="s">
-        <v>738</v>
+        <v>2474</v>
       </c>
       <c r="H949" s="36" t="s">
-        <v>738</v>
+        <v>2474</v>
       </c>
       <c r="I949" s="36" t="s">
-        <v>760</v>
+        <v>852</v>
       </c>
       <c r="J949" s="38" t="s">
         <v>125</v>
@@ -91521,8 +91523,8 @@
       <c r="N949" s="39">
         <v>0</v>
       </c>
-      <c r="O949" s="39">
-        <v>874753</v>
+      <c r="O949" s="59">
+        <v>21104267</v>
       </c>
       <c r="P949" s="39">
         <v>0</v>
@@ -91530,7 +91532,7 @@
     </row>
     <row r="950" spans="1:16">
       <c r="A950" s="36" t="s">
-        <v>761</v>
+        <v>2527</v>
       </c>
       <c r="B950" s="37" t="s">
         <v>118</v>
@@ -91539,22 +91541,22 @@
         <v>119</v>
       </c>
       <c r="D950" s="36" t="s">
-        <v>762</v>
+        <v>2528</v>
       </c>
       <c r="E950" s="36" t="s">
-        <v>208</v>
+        <v>1887</v>
       </c>
       <c r="F950" s="38" t="s">
-        <v>737</v>
+        <v>2446</v>
       </c>
       <c r="G950" s="36" t="s">
-        <v>738</v>
+        <v>2525</v>
       </c>
       <c r="H950" s="36" t="s">
-        <v>763</v>
+        <v>2525</v>
       </c>
       <c r="I950" s="36" t="s">
-        <v>764</v>
+        <v>2526</v>
       </c>
       <c r="J950" s="38" t="s">
         <v>125</v>
@@ -91571,8 +91573,8 @@
       <c r="N950" s="39">
         <v>0</v>
       </c>
-      <c r="O950" s="39">
-        <v>1012297</v>
+      <c r="O950" s="59">
+        <v>20000000</v>
       </c>
       <c r="P950" s="39">
         <v>0</v>
@@ -91580,31 +91582,31 @@
     </row>
     <row r="951" spans="1:16">
       <c r="A951" s="36" t="s">
-        <v>765</v>
+        <v>2843</v>
       </c>
       <c r="B951" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C951" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D951" s="36" t="s">
-        <v>766</v>
+        <v>2844</v>
       </c>
       <c r="E951" s="36" t="s">
-        <v>208</v>
+        <v>1887</v>
       </c>
       <c r="F951" s="38" t="s">
-        <v>737</v>
+        <v>2446</v>
       </c>
       <c r="G951" s="36" t="s">
-        <v>738</v>
+        <v>2525</v>
       </c>
       <c r="H951" s="36" t="s">
-        <v>738</v>
+        <v>2525</v>
       </c>
       <c r="I951" s="36" t="s">
-        <v>767</v>
+        <v>2531</v>
       </c>
       <c r="J951" s="38" t="s">
         <v>125</v>
@@ -91622,7 +91624,7 @@
         <v>0</v>
       </c>
       <c r="O951" s="39">
-        <v>2046248</v>
+        <v>20000000</v>
       </c>
       <c r="P951" s="39">
         <v>0</v>
@@ -91630,31 +91632,31 @@
     </row>
     <row r="952" spans="1:16">
       <c r="A952" s="36" t="s">
-        <v>768</v>
+        <v>2852</v>
       </c>
       <c r="B952" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C952" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D952" s="36" t="s">
-        <v>769</v>
+        <v>2853</v>
       </c>
       <c r="E952" s="36" t="s">
-        <v>208</v>
+        <v>1887</v>
       </c>
       <c r="F952" s="38" t="s">
-        <v>737</v>
+        <v>2446</v>
       </c>
       <c r="G952" s="36" t="s">
-        <v>738</v>
+        <v>2525</v>
       </c>
       <c r="H952" s="36" t="s">
-        <v>738</v>
+        <v>2525</v>
       </c>
       <c r="I952" s="36" t="s">
-        <v>770</v>
+        <v>2526</v>
       </c>
       <c r="J952" s="38" t="s">
         <v>125</v>
@@ -91672,7 +91674,7 @@
         <v>0</v>
       </c>
       <c r="O952" s="39">
-        <v>2080401</v>
+        <v>20000000</v>
       </c>
       <c r="P952" s="39">
         <v>0</v>
@@ -91680,31 +91682,31 @@
     </row>
     <row r="953" spans="1:16">
       <c r="A953" s="36" t="s">
-        <v>771</v>
+        <v>2848</v>
       </c>
       <c r="B953" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C953" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D953" s="36" t="s">
-        <v>772</v>
+        <v>2849</v>
       </c>
       <c r="E953" s="36" t="s">
-        <v>208</v>
+        <v>1887</v>
       </c>
       <c r="F953" s="38" t="s">
-        <v>737</v>
+        <v>2446</v>
       </c>
       <c r="G953" s="36" t="s">
-        <v>738</v>
+        <v>2525</v>
       </c>
       <c r="H953" s="36" t="s">
-        <v>738</v>
+        <v>2525</v>
       </c>
       <c r="I953" s="36" t="s">
-        <v>773</v>
+        <v>2531</v>
       </c>
       <c r="J953" s="38" t="s">
         <v>125</v>
@@ -91722,7 +91724,7 @@
         <v>0</v>
       </c>
       <c r="O953" s="39">
-        <v>1973886</v>
+        <v>15000000</v>
       </c>
       <c r="P953" s="39">
         <v>0</v>
@@ -91730,31 +91732,31 @@
     </row>
     <row r="954" spans="1:16">
       <c r="A954" s="36" t="s">
-        <v>774</v>
+        <v>2585</v>
       </c>
       <c r="B954" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C954" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D954" s="36" t="s">
-        <v>775</v>
+        <v>2586</v>
       </c>
       <c r="E954" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F954" s="38" t="s">
-        <v>737</v>
+        <v>1317</v>
       </c>
       <c r="G954" s="36" t="s">
-        <v>738</v>
+        <v>2587</v>
       </c>
       <c r="H954" s="36" t="s">
-        <v>738</v>
+        <v>2587</v>
       </c>
       <c r="I954" s="36" t="s">
-        <v>776</v>
+        <v>2588</v>
       </c>
       <c r="J954" s="38" t="s">
         <v>125</v>
@@ -91772,7 +91774,7 @@
         <v>0</v>
       </c>
       <c r="O954" s="39">
-        <v>781677</v>
+        <v>14584300</v>
       </c>
       <c r="P954" s="39">
         <v>0</v>
@@ -91780,7 +91782,7 @@
     </row>
     <row r="955" spans="1:16">
       <c r="A955" s="36" t="s">
-        <v>777</v>
+        <v>1666</v>
       </c>
       <c r="B955" s="37" t="s">
         <v>118</v>
@@ -91789,22 +91791,22 @@
         <v>119</v>
       </c>
       <c r="D955" s="36" t="s">
-        <v>778</v>
+        <v>1667</v>
       </c>
       <c r="E955" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F955" s="38" t="s">
-        <v>737</v>
+        <v>1663</v>
       </c>
       <c r="G955" s="36" t="s">
-        <v>738</v>
+        <v>1668</v>
       </c>
       <c r="H955" s="36" t="s">
-        <v>738</v>
+        <v>1668</v>
       </c>
       <c r="I955" s="36" t="s">
-        <v>779</v>
+        <v>1669</v>
       </c>
       <c r="J955" s="38" t="s">
         <v>125</v>
@@ -91821,8 +91823,8 @@
       <c r="N955" s="39">
         <v>0</v>
       </c>
-      <c r="O955" s="39">
-        <v>2148010</v>
+      <c r="O955" s="59">
+        <v>14359000</v>
       </c>
       <c r="P955" s="39">
         <v>0</v>
@@ -91830,31 +91832,31 @@
     </row>
     <row r="956" spans="1:16">
       <c r="A956" s="36" t="s">
-        <v>780</v>
+        <v>2581</v>
       </c>
       <c r="B956" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C956" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D956" s="36" t="s">
-        <v>781</v>
+        <v>2582</v>
       </c>
       <c r="E956" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F956" s="38" t="s">
-        <v>737</v>
+        <v>1218</v>
       </c>
       <c r="G956" s="36" t="s">
-        <v>738</v>
+        <v>2583</v>
       </c>
       <c r="H956" s="36" t="s">
-        <v>738</v>
+        <v>2583</v>
       </c>
       <c r="I956" s="36" t="s">
-        <v>782</v>
+        <v>2584</v>
       </c>
       <c r="J956" s="38" t="s">
         <v>125</v>
@@ -91872,7 +91874,7 @@
         <v>0</v>
       </c>
       <c r="O956" s="39">
-        <v>1153300</v>
+        <v>12635584</v>
       </c>
       <c r="P956" s="39">
         <v>0</v>
@@ -91880,7 +91882,7 @@
     </row>
     <row r="957" spans="1:16">
       <c r="A957" s="36" t="s">
-        <v>783</v>
+        <v>2071</v>
       </c>
       <c r="B957" s="37" t="s">
         <v>118</v>
@@ -91889,22 +91891,22 @@
         <v>119</v>
       </c>
       <c r="D957" s="36" t="s">
-        <v>784</v>
+        <v>2072</v>
       </c>
       <c r="E957" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F957" s="38" t="s">
-        <v>737</v>
+        <v>2050</v>
       </c>
       <c r="G957" s="36" t="s">
-        <v>738</v>
+        <v>2073</v>
       </c>
       <c r="H957" s="36" t="s">
-        <v>738</v>
+        <v>2073</v>
       </c>
       <c r="I957" s="36" t="s">
-        <v>785</v>
+        <v>2074</v>
       </c>
       <c r="J957" s="38" t="s">
         <v>125</v>
@@ -91921,8 +91923,8 @@
       <c r="N957" s="39">
         <v>0</v>
       </c>
-      <c r="O957" s="39">
-        <v>1842225</v>
+      <c r="O957" s="59">
+        <v>11592170</v>
       </c>
       <c r="P957" s="39">
         <v>0</v>
@@ -91930,31 +91932,31 @@
     </row>
     <row r="958" spans="1:16">
       <c r="A958" s="36" t="s">
-        <v>849</v>
+        <v>2854</v>
       </c>
       <c r="B958" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C958" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D958" s="36" t="s">
-        <v>850</v>
+        <v>2855</v>
       </c>
       <c r="E958" s="36" t="s">
-        <v>208</v>
+        <v>1887</v>
       </c>
       <c r="F958" s="38" t="s">
-        <v>846</v>
+        <v>2446</v>
       </c>
       <c r="G958" s="36" t="s">
-        <v>851</v>
+        <v>2525</v>
       </c>
       <c r="H958" s="36" t="s">
-        <v>851</v>
+        <v>2525</v>
       </c>
       <c r="I958" s="36" t="s">
-        <v>852</v>
+        <v>2526</v>
       </c>
       <c r="J958" s="38" t="s">
         <v>125</v>
@@ -91972,7 +91974,7 @@
         <v>0</v>
       </c>
       <c r="O958" s="39">
-        <v>64391793</v>
+        <v>10000000</v>
       </c>
       <c r="P958" s="39">
         <v>0</v>
@@ -91980,7 +91982,7 @@
     </row>
     <row r="959" spans="1:16">
       <c r="A959" s="36" t="s">
-        <v>880</v>
+        <v>1053</v>
       </c>
       <c r="B959" s="37" t="s">
         <v>118</v>
@@ -91989,22 +91991,22 @@
         <v>119</v>
       </c>
       <c r="D959" s="36" t="s">
-        <v>881</v>
+        <v>1054</v>
       </c>
       <c r="E959" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F959" s="38" t="s">
-        <v>882</v>
+        <v>1047</v>
       </c>
       <c r="G959" s="36" t="s">
-        <v>883</v>
+        <v>1055</v>
       </c>
       <c r="H959" s="36" t="s">
-        <v>883</v>
+        <v>1055</v>
       </c>
       <c r="I959" s="36" t="s">
-        <v>884</v>
+        <v>1056</v>
       </c>
       <c r="J959" s="38" t="s">
         <v>125</v>
@@ -92021,8 +92023,8 @@
       <c r="N959" s="39">
         <v>0</v>
       </c>
-      <c r="O959" s="39">
-        <v>1246783</v>
+      <c r="O959" s="59">
+        <v>8338900</v>
       </c>
       <c r="P959" s="39">
         <v>0</v>
@@ -92030,7 +92032,7 @@
     </row>
     <row r="960" spans="1:16">
       <c r="A960" s="36" t="s">
-        <v>885</v>
+        <v>1471</v>
       </c>
       <c r="B960" s="37" t="s">
         <v>118</v>
@@ -92039,22 +92041,22 @@
         <v>119</v>
       </c>
       <c r="D960" s="36" t="s">
-        <v>886</v>
+        <v>1472</v>
       </c>
       <c r="E960" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F960" s="38" t="s">
-        <v>882</v>
+        <v>1451</v>
       </c>
       <c r="G960" s="36" t="s">
-        <v>887</v>
+        <v>1473</v>
       </c>
       <c r="H960" s="36" t="s">
-        <v>887</v>
+        <v>1473</v>
       </c>
       <c r="I960" s="36" t="s">
-        <v>888</v>
+        <v>1474</v>
       </c>
       <c r="J960" s="38" t="s">
         <v>125</v>
@@ -92071,8 +92073,8 @@
       <c r="N960" s="39">
         <v>0</v>
       </c>
-      <c r="O960" s="39">
-        <v>1048778</v>
+      <c r="O960" s="59">
+        <v>6739000</v>
       </c>
       <c r="P960" s="39">
         <v>0</v>
@@ -92080,31 +92082,31 @@
     </row>
     <row r="961" spans="1:16">
       <c r="A961" s="36" t="s">
-        <v>889</v>
+        <v>2892</v>
       </c>
       <c r="B961" s="37" t="s">
-        <v>118</v>
+        <v>2864</v>
       </c>
       <c r="C961" s="36" t="s">
-        <v>119</v>
+        <v>2865</v>
       </c>
       <c r="D961" s="36" t="s">
-        <v>890</v>
+        <v>2893</v>
       </c>
       <c r="E961" s="36" t="s">
-        <v>208</v>
+        <v>1887</v>
       </c>
       <c r="F961" s="38" t="s">
-        <v>882</v>
+        <v>2446</v>
       </c>
       <c r="G961" s="36" t="s">
-        <v>891</v>
+        <v>2525</v>
       </c>
       <c r="H961" s="36" t="s">
-        <v>891</v>
+        <v>2525</v>
       </c>
       <c r="I961" s="36" t="s">
-        <v>892</v>
+        <v>2894</v>
       </c>
       <c r="J961" s="38" t="s">
         <v>125</v>
@@ -92122,7 +92124,7 @@
         <v>0</v>
       </c>
       <c r="O961" s="39">
-        <v>1758073</v>
+        <v>6579000</v>
       </c>
       <c r="P961" s="39">
         <v>0</v>
@@ -92130,31 +92132,31 @@
     </row>
     <row r="962" spans="1:16">
       <c r="A962" s="36" t="s">
-        <v>893</v>
+        <v>2572</v>
       </c>
       <c r="B962" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C962" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D962" s="36" t="s">
-        <v>894</v>
+        <v>2573</v>
       </c>
       <c r="E962" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F962" s="38" t="s">
-        <v>882</v>
+        <v>422</v>
       </c>
       <c r="G962" s="36" t="s">
-        <v>895</v>
+        <v>2574</v>
       </c>
       <c r="H962" s="36" t="s">
-        <v>895</v>
+        <v>2574</v>
       </c>
       <c r="I962" s="36" t="s">
-        <v>896</v>
+        <v>2074</v>
       </c>
       <c r="J962" s="38" t="s">
         <v>125</v>
@@ -92172,7 +92174,7 @@
         <v>0</v>
       </c>
       <c r="O962" s="39">
-        <v>2420224</v>
+        <v>6443665</v>
       </c>
       <c r="P962" s="39">
         <v>0</v>
@@ -92180,31 +92182,31 @@
     </row>
     <row r="963" spans="1:16">
       <c r="A963" s="36" t="s">
-        <v>121</v>
+        <v>2601</v>
       </c>
       <c r="B963" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C963" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D963" s="36" t="s">
-        <v>897</v>
+        <v>2602</v>
       </c>
       <c r="E963" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F963" s="38" t="s">
-        <v>882</v>
+        <v>2050</v>
       </c>
       <c r="G963" s="36" t="s">
-        <v>898</v>
+        <v>2603</v>
       </c>
       <c r="H963" s="36" t="s">
-        <v>898</v>
+        <v>2603</v>
       </c>
       <c r="I963" s="36" t="s">
-        <v>899</v>
+        <v>2604</v>
       </c>
       <c r="J963" s="38" t="s">
         <v>125</v>
@@ -92222,7 +92224,7 @@
         <v>0</v>
       </c>
       <c r="O963" s="39">
-        <v>1462280</v>
+        <v>5685370</v>
       </c>
       <c r="P963" s="39">
         <v>0</v>
@@ -92230,7 +92232,7 @@
     </row>
     <row r="964" spans="1:16">
       <c r="A964" s="36" t="s">
-        <v>1049</v>
+        <v>1970</v>
       </c>
       <c r="B964" s="37" t="s">
         <v>118</v>
@@ -92239,22 +92241,22 @@
         <v>119</v>
       </c>
       <c r="D964" s="36" t="s">
-        <v>1050</v>
+        <v>1971</v>
       </c>
       <c r="E964" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F964" s="38" t="s">
-        <v>1047</v>
+        <v>1960</v>
       </c>
       <c r="G964" s="36" t="s">
-        <v>1051</v>
+        <v>1972</v>
       </c>
       <c r="H964" s="36" t="s">
-        <v>1051</v>
+        <v>1972</v>
       </c>
       <c r="I964" s="36" t="s">
-        <v>1052</v>
+        <v>1973</v>
       </c>
       <c r="J964" s="38" t="s">
         <v>125</v>
@@ -92271,8 +92273,8 @@
       <c r="N964" s="39">
         <v>0</v>
       </c>
-      <c r="O964" s="39">
-        <v>64225000</v>
+      <c r="O964" s="59">
+        <v>5097052</v>
       </c>
       <c r="P964" s="39">
         <v>0</v>
@@ -92280,7 +92282,7 @@
     </row>
     <row r="965" spans="1:16">
       <c r="A965" s="36" t="s">
-        <v>1053</v>
+        <v>2075</v>
       </c>
       <c r="B965" s="37" t="s">
         <v>118</v>
@@ -92289,22 +92291,22 @@
         <v>119</v>
       </c>
       <c r="D965" s="36" t="s">
-        <v>1054</v>
+        <v>2076</v>
       </c>
       <c r="E965" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F965" s="38" t="s">
-        <v>1047</v>
+        <v>2050</v>
       </c>
       <c r="G965" s="36" t="s">
-        <v>1055</v>
+        <v>2077</v>
       </c>
       <c r="H965" s="36" t="s">
-        <v>1055</v>
+        <v>2077</v>
       </c>
       <c r="I965" s="36" t="s">
-        <v>1056</v>
+        <v>2078</v>
       </c>
       <c r="J965" s="38" t="s">
         <v>125</v>
@@ -92321,8 +92323,8 @@
       <c r="N965" s="39">
         <v>0</v>
       </c>
-      <c r="O965" s="39">
-        <v>8338900</v>
+      <c r="O965" s="59">
+        <v>4782875</v>
       </c>
       <c r="P965" s="39">
         <v>0</v>
@@ -92330,7 +92332,7 @@
     </row>
     <row r="966" spans="1:16">
       <c r="A966" s="36" t="s">
-        <v>1226</v>
+        <v>314</v>
       </c>
       <c r="B966" s="37" t="s">
         <v>118</v>
@@ -92339,22 +92341,22 @@
         <v>119</v>
       </c>
       <c r="D966" s="36" t="s">
-        <v>1227</v>
+        <v>315</v>
       </c>
       <c r="E966" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F966" s="38" t="s">
-        <v>1218</v>
+        <v>316</v>
       </c>
       <c r="G966" s="36" t="s">
-        <v>1228</v>
+        <v>317</v>
       </c>
       <c r="H966" s="36" t="s">
-        <v>1228</v>
+        <v>317</v>
       </c>
       <c r="I966" s="36" t="s">
-        <v>1229</v>
+        <v>318</v>
       </c>
       <c r="J966" s="38" t="s">
         <v>125</v>
@@ -92371,8 +92373,8 @@
       <c r="N966" s="39">
         <v>0</v>
       </c>
-      <c r="O966" s="39">
-        <v>54914617</v>
+      <c r="O966" s="59">
+        <v>4705166</v>
       </c>
       <c r="P966" s="39">
         <v>0</v>
@@ -92380,7 +92382,7 @@
     </row>
     <row r="967" spans="1:16">
       <c r="A967" s="36" t="s">
-        <v>1467</v>
+        <v>2361</v>
       </c>
       <c r="B967" s="37" t="s">
         <v>118</v>
@@ -92389,22 +92391,22 @@
         <v>119</v>
       </c>
       <c r="D967" s="36" t="s">
-        <v>1468</v>
+        <v>2362</v>
       </c>
       <c r="E967" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F967" s="38" t="s">
-        <v>1451</v>
+        <v>2310</v>
       </c>
       <c r="G967" s="36" t="s">
-        <v>1469</v>
+        <v>2337</v>
       </c>
       <c r="H967" s="36" t="s">
-        <v>1469</v>
+        <v>2337</v>
       </c>
       <c r="I967" s="36" t="s">
-        <v>1470</v>
+        <v>1575</v>
       </c>
       <c r="J967" s="38" t="s">
         <v>125</v>
@@ -92421,8 +92423,8 @@
       <c r="N967" s="39">
         <v>0</v>
       </c>
-      <c r="O967" s="39">
-        <v>1456234</v>
+      <c r="O967" s="59">
+        <v>4254384</v>
       </c>
       <c r="P967" s="39">
         <v>0</v>
@@ -92430,7 +92432,7 @@
     </row>
     <row r="968" spans="1:16">
       <c r="A968" s="36" t="s">
-        <v>1471</v>
+        <v>2537</v>
       </c>
       <c r="B968" s="37" t="s">
         <v>118</v>
@@ -92439,22 +92441,22 @@
         <v>119</v>
       </c>
       <c r="D968" s="36" t="s">
-        <v>1472</v>
+        <v>2538</v>
       </c>
       <c r="E968" s="36" t="s">
-        <v>208</v>
+        <v>1887</v>
       </c>
       <c r="F968" s="38" t="s">
-        <v>1451</v>
+        <v>2446</v>
       </c>
       <c r="G968" s="36" t="s">
-        <v>1473</v>
+        <v>2525</v>
       </c>
       <c r="H968" s="36" t="s">
-        <v>1473</v>
+        <v>2525</v>
       </c>
       <c r="I968" s="36" t="s">
-        <v>1474</v>
+        <v>2536</v>
       </c>
       <c r="J968" s="38" t="s">
         <v>125</v>
@@ -92472,7 +92474,7 @@
         <v>0</v>
       </c>
       <c r="O968" s="39">
-        <v>6739000</v>
+        <v>3807277.76</v>
       </c>
       <c r="P968" s="39">
         <v>0</v>
@@ -92480,31 +92482,31 @@
     </row>
     <row r="969" spans="1:16">
       <c r="A969" s="36" t="s">
-        <v>1542</v>
+        <v>2597</v>
       </c>
       <c r="B969" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C969" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D969" s="36" t="s">
-        <v>1543</v>
+        <v>2598</v>
       </c>
       <c r="E969" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F969" s="38" t="s">
-        <v>1539</v>
+        <v>1839</v>
       </c>
       <c r="G969" s="36" t="s">
-        <v>1544</v>
+        <v>2599</v>
       </c>
       <c r="H969" s="36" t="s">
-        <v>1544</v>
+        <v>2599</v>
       </c>
       <c r="I969" s="36" t="s">
-        <v>1545</v>
+        <v>2600</v>
       </c>
       <c r="J969" s="38" t="s">
         <v>125</v>
@@ -92522,7 +92524,7 @@
         <v>0</v>
       </c>
       <c r="O969" s="39">
-        <v>882470</v>
+        <v>3000000</v>
       </c>
       <c r="P969" s="39">
         <v>0</v>
@@ -92530,31 +92532,31 @@
     </row>
     <row r="970" spans="1:16">
       <c r="A970" s="36" t="s">
-        <v>1546</v>
+        <v>2845</v>
       </c>
       <c r="B970" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C970" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D970" s="36" t="s">
-        <v>1547</v>
+        <v>2846</v>
       </c>
       <c r="E970" s="36" t="s">
-        <v>208</v>
+        <v>1887</v>
       </c>
       <c r="F970" s="38" t="s">
-        <v>1539</v>
+        <v>2446</v>
       </c>
       <c r="G970" s="36" t="s">
-        <v>1544</v>
+        <v>2525</v>
       </c>
       <c r="H970" s="36" t="s">
-        <v>1544</v>
+        <v>2525</v>
       </c>
       <c r="I970" s="36" t="s">
-        <v>1548</v>
+        <v>2847</v>
       </c>
       <c r="J970" s="38" t="s">
         <v>125</v>
@@ -92572,7 +92574,7 @@
         <v>0</v>
       </c>
       <c r="O970" s="39">
-        <v>441655</v>
+        <v>2689982</v>
       </c>
       <c r="P970" s="39">
         <v>0</v>
@@ -92580,7 +92582,7 @@
     </row>
     <row r="971" spans="1:16">
       <c r="A971" s="36" t="s">
-        <v>1549</v>
+        <v>893</v>
       </c>
       <c r="B971" s="37" t="s">
         <v>118</v>
@@ -92589,22 +92591,22 @@
         <v>119</v>
       </c>
       <c r="D971" s="36" t="s">
-        <v>1550</v>
+        <v>894</v>
       </c>
       <c r="E971" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F971" s="38" t="s">
-        <v>1539</v>
+        <v>882</v>
       </c>
       <c r="G971" s="36" t="s">
-        <v>1544</v>
+        <v>895</v>
       </c>
       <c r="H971" s="36" t="s">
-        <v>1544</v>
+        <v>895</v>
       </c>
       <c r="I971" s="36" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="J971" s="38" t="s">
         <v>125</v>
@@ -92622,7 +92624,7 @@
         <v>0</v>
       </c>
       <c r="O971" s="39">
-        <v>683748</v>
+        <v>2420224</v>
       </c>
       <c r="P971" s="39">
         <v>0</v>
@@ -92630,31 +92632,31 @@
     </row>
     <row r="972" spans="1:16">
       <c r="A972" s="36" t="s">
-        <v>1551</v>
+        <v>2900</v>
       </c>
       <c r="B972" s="37" t="s">
-        <v>118</v>
+        <v>2864</v>
       </c>
       <c r="C972" s="36" t="s">
-        <v>119</v>
+        <v>2865</v>
       </c>
       <c r="D972" s="36" t="s">
-        <v>1552</v>
+        <v>2901</v>
       </c>
       <c r="E972" s="36" t="s">
-        <v>208</v>
+        <v>1887</v>
       </c>
       <c r="F972" s="38" t="s">
-        <v>1539</v>
+        <v>2446</v>
       </c>
       <c r="G972" s="36" t="s">
-        <v>1544</v>
+        <v>2525</v>
       </c>
       <c r="H972" s="36" t="s">
-        <v>1544</v>
+        <v>2525</v>
       </c>
       <c r="I972" s="36" t="s">
-        <v>1553</v>
+        <v>2894</v>
       </c>
       <c r="J972" s="38" t="s">
         <v>125</v>
@@ -92672,7 +92674,7 @@
         <v>0</v>
       </c>
       <c r="O972" s="39">
-        <v>663141</v>
+        <v>2245000</v>
       </c>
       <c r="P972" s="39">
         <v>0</v>
@@ -92680,31 +92682,31 @@
     </row>
     <row r="973" spans="1:16">
       <c r="A973" s="36" t="s">
-        <v>1554</v>
+        <v>2856</v>
       </c>
       <c r="B973" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C973" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D973" s="36" t="s">
-        <v>1555</v>
+        <v>2857</v>
       </c>
       <c r="E973" s="36" t="s">
-        <v>208</v>
+        <v>1887</v>
       </c>
       <c r="F973" s="38" t="s">
-        <v>1539</v>
+        <v>2446</v>
       </c>
       <c r="G973" s="36" t="s">
-        <v>1544</v>
+        <v>2525</v>
       </c>
       <c r="H973" s="36" t="s">
-        <v>1544</v>
+        <v>2525</v>
       </c>
       <c r="I973" s="36" t="s">
-        <v>1556</v>
+        <v>2536</v>
       </c>
       <c r="J973" s="38" t="s">
         <v>125</v>
@@ -92722,7 +92724,7 @@
         <v>0</v>
       </c>
       <c r="O973" s="39">
-        <v>763141</v>
+        <v>2212407.7000000002</v>
       </c>
       <c r="P973" s="39">
         <v>0</v>
@@ -92730,7 +92732,7 @@
     </row>
     <row r="974" spans="1:16">
       <c r="A974" s="36" t="s">
-        <v>1557</v>
+        <v>777</v>
       </c>
       <c r="B974" s="37" t="s">
         <v>118</v>
@@ -92739,22 +92741,22 @@
         <v>119</v>
       </c>
       <c r="D974" s="36" t="s">
-        <v>1558</v>
+        <v>778</v>
       </c>
       <c r="E974" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F974" s="38" t="s">
-        <v>1539</v>
+        <v>737</v>
       </c>
       <c r="G974" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="H974" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="I974" s="36" t="s">
-        <v>1559</v>
+        <v>779</v>
       </c>
       <c r="J974" s="38" t="s">
         <v>125</v>
@@ -92771,8 +92773,8 @@
       <c r="N974" s="39">
         <v>0</v>
       </c>
-      <c r="O974" s="39">
-        <v>639621</v>
+      <c r="O974" s="59">
+        <v>2148010</v>
       </c>
       <c r="P974" s="39">
         <v>0</v>
@@ -92780,7 +92782,7 @@
     </row>
     <row r="975" spans="1:16">
       <c r="A975" s="36" t="s">
-        <v>1560</v>
+        <v>768</v>
       </c>
       <c r="B975" s="37" t="s">
         <v>118</v>
@@ -92789,22 +92791,22 @@
         <v>119</v>
       </c>
       <c r="D975" s="36" t="s">
-        <v>1561</v>
+        <v>769</v>
       </c>
       <c r="E975" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F975" s="38" t="s">
-        <v>1539</v>
+        <v>737</v>
       </c>
       <c r="G975" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="H975" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="I975" s="36" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="J975" s="38" t="s">
         <v>125</v>
@@ -92821,8 +92823,8 @@
       <c r="N975" s="39">
         <v>0</v>
       </c>
-      <c r="O975" s="39">
-        <v>646920</v>
+      <c r="O975" s="59">
+        <v>2080401</v>
       </c>
       <c r="P975" s="39">
         <v>0</v>
@@ -92830,7 +92832,7 @@
     </row>
     <row r="976" spans="1:16">
       <c r="A976" s="36" t="s">
-        <v>1562</v>
+        <v>765</v>
       </c>
       <c r="B976" s="37" t="s">
         <v>118</v>
@@ -92839,22 +92841,22 @@
         <v>119</v>
       </c>
       <c r="D976" s="36" t="s">
-        <v>1563</v>
+        <v>766</v>
       </c>
       <c r="E976" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F976" s="38" t="s">
-        <v>1539</v>
+        <v>737</v>
       </c>
       <c r="G976" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="H976" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="I976" s="36" t="s">
-        <v>1564</v>
+        <v>767</v>
       </c>
       <c r="J976" s="38" t="s">
         <v>125</v>
@@ -92871,8 +92873,8 @@
       <c r="N976" s="39">
         <v>0</v>
       </c>
-      <c r="O976" s="39">
-        <v>360099</v>
+      <c r="O976" s="59">
+        <v>2046248</v>
       </c>
       <c r="P976" s="39">
         <v>0</v>
@@ -92880,7 +92882,7 @@
     </row>
     <row r="977" spans="1:16">
       <c r="A977" s="36" t="s">
-        <v>1565</v>
+        <v>771</v>
       </c>
       <c r="B977" s="37" t="s">
         <v>118</v>
@@ -92889,22 +92891,22 @@
         <v>119</v>
       </c>
       <c r="D977" s="36" t="s">
-        <v>1566</v>
+        <v>772</v>
       </c>
       <c r="E977" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F977" s="38" t="s">
-        <v>1539</v>
+        <v>737</v>
       </c>
       <c r="G977" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="H977" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="I977" s="36" t="s">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="J977" s="38" t="s">
         <v>125</v>
@@ -92921,8 +92923,8 @@
       <c r="N977" s="39">
         <v>0</v>
       </c>
-      <c r="O977" s="39">
-        <v>633822</v>
+      <c r="O977" s="59">
+        <v>1973886</v>
       </c>
       <c r="P977" s="39">
         <v>0</v>
@@ -92930,7 +92932,7 @@
     </row>
     <row r="978" spans="1:16">
       <c r="A978" s="36" t="s">
-        <v>1567</v>
+        <v>735</v>
       </c>
       <c r="B978" s="37" t="s">
         <v>118</v>
@@ -92939,22 +92941,22 @@
         <v>119</v>
       </c>
       <c r="D978" s="36" t="s">
-        <v>1568</v>
+        <v>736</v>
       </c>
       <c r="E978" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F978" s="38" t="s">
-        <v>1539</v>
+        <v>737</v>
       </c>
       <c r="G978" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="H978" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="I978" s="36" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="J978" s="38" t="s">
         <v>125</v>
@@ -92971,8 +92973,8 @@
       <c r="N978" s="39">
         <v>0</v>
       </c>
-      <c r="O978" s="39">
-        <v>658688</v>
+      <c r="O978" s="59">
+        <v>1853894</v>
       </c>
       <c r="P978" s="39">
         <v>0</v>
@@ -92980,7 +92982,7 @@
     </row>
     <row r="979" spans="1:16">
       <c r="A979" s="36" t="s">
-        <v>1569</v>
+        <v>783</v>
       </c>
       <c r="B979" s="37" t="s">
         <v>118</v>
@@ -92989,22 +92991,22 @@
         <v>119</v>
       </c>
       <c r="D979" s="36" t="s">
-        <v>1570</v>
+        <v>784</v>
       </c>
       <c r="E979" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F979" s="38" t="s">
-        <v>1539</v>
+        <v>737</v>
       </c>
       <c r="G979" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="H979" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="I979" s="36" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="J979" s="38" t="s">
         <v>125</v>
@@ -93022,7 +93024,7 @@
         <v>0</v>
       </c>
       <c r="O979" s="39">
-        <v>757436</v>
+        <v>1842225</v>
       </c>
       <c r="P979" s="39">
         <v>0</v>
@@ -93030,7 +93032,7 @@
     </row>
     <row r="980" spans="1:16">
       <c r="A980" s="36" t="s">
-        <v>1571</v>
+        <v>889</v>
       </c>
       <c r="B980" s="37" t="s">
         <v>118</v>
@@ -93039,22 +93041,22 @@
         <v>119</v>
       </c>
       <c r="D980" s="36" t="s">
-        <v>1572</v>
+        <v>890</v>
       </c>
       <c r="E980" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F980" s="38" t="s">
-        <v>1539</v>
+        <v>882</v>
       </c>
       <c r="G980" s="36" t="s">
-        <v>1544</v>
+        <v>891</v>
       </c>
       <c r="H980" s="36" t="s">
-        <v>1544</v>
+        <v>891</v>
       </c>
       <c r="I980" s="36" t="s">
-        <v>770</v>
+        <v>892</v>
       </c>
       <c r="J980" s="38" t="s">
         <v>125</v>
@@ -93071,8 +93073,8 @@
       <c r="N980" s="39">
         <v>0</v>
       </c>
-      <c r="O980" s="39">
-        <v>795030</v>
+      <c r="O980" s="59">
+        <v>1758073</v>
       </c>
       <c r="P980" s="39">
         <v>0</v>
@@ -93080,7 +93082,7 @@
     </row>
     <row r="981" spans="1:16">
       <c r="A981" s="36" t="s">
-        <v>1573</v>
+        <v>740</v>
       </c>
       <c r="B981" s="37" t="s">
         <v>118</v>
@@ -93089,22 +93091,22 @@
         <v>119</v>
       </c>
       <c r="D981" s="36" t="s">
-        <v>1574</v>
+        <v>741</v>
       </c>
       <c r="E981" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F981" s="38" t="s">
-        <v>1539</v>
+        <v>737</v>
       </c>
       <c r="G981" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="H981" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="I981" s="36" t="s">
-        <v>1575</v>
+        <v>742</v>
       </c>
       <c r="J981" s="38" t="s">
         <v>125</v>
@@ -93121,8 +93123,8 @@
       <c r="N981" s="39">
         <v>0</v>
       </c>
-      <c r="O981" s="39">
-        <v>657436</v>
+      <c r="O981" s="59">
+        <v>1757004</v>
       </c>
       <c r="P981" s="39">
         <v>0</v>
@@ -93130,7 +93132,7 @@
     </row>
     <row r="982" spans="1:16">
       <c r="A982" s="36" t="s">
-        <v>1576</v>
+        <v>752</v>
       </c>
       <c r="B982" s="37" t="s">
         <v>118</v>
@@ -93139,22 +93141,22 @@
         <v>119</v>
       </c>
       <c r="D982" s="36" t="s">
-        <v>1577</v>
+        <v>753</v>
       </c>
       <c r="E982" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F982" s="38" t="s">
-        <v>1539</v>
+        <v>737</v>
       </c>
       <c r="G982" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="H982" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="I982" s="36" t="s">
-        <v>1578</v>
+        <v>754</v>
       </c>
       <c r="J982" s="38" t="s">
         <v>125</v>
@@ -93171,8 +93173,8 @@
       <c r="N982" s="39">
         <v>0</v>
       </c>
-      <c r="O982" s="39">
-        <v>461222</v>
+      <c r="O982" s="59">
+        <v>1590430</v>
       </c>
       <c r="P982" s="39">
         <v>0</v>
@@ -93180,31 +93182,31 @@
     </row>
     <row r="983" spans="1:16">
       <c r="A983" s="36" t="s">
-        <v>1579</v>
+        <v>2589</v>
       </c>
       <c r="B983" s="37" t="s">
-        <v>118</v>
+        <v>2545</v>
       </c>
       <c r="C983" s="36" t="s">
-        <v>119</v>
+        <v>2546</v>
       </c>
       <c r="D983" s="36" t="s">
-        <v>1580</v>
+        <v>2590</v>
       </c>
       <c r="E983" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F983" s="38" t="s">
-        <v>1539</v>
+        <v>1745</v>
       </c>
       <c r="G983" s="36" t="s">
-        <v>1544</v>
+        <v>2591</v>
       </c>
       <c r="H983" s="36" t="s">
-        <v>1544</v>
+        <v>2591</v>
       </c>
       <c r="I983" s="36" t="s">
-        <v>779</v>
+        <v>2592</v>
       </c>
       <c r="J983" s="38" t="s">
         <v>125</v>
@@ -93222,7 +93224,7 @@
         <v>0</v>
       </c>
       <c r="O983" s="39">
-        <v>806114</v>
+        <v>1534877</v>
       </c>
       <c r="P983" s="39">
         <v>0</v>
@@ -93230,7 +93232,7 @@
     </row>
     <row r="984" spans="1:16">
       <c r="A984" s="36" t="s">
-        <v>1581</v>
+        <v>746</v>
       </c>
       <c r="B984" s="37" t="s">
         <v>118</v>
@@ -93239,22 +93241,22 @@
         <v>119</v>
       </c>
       <c r="D984" s="36" t="s">
-        <v>1582</v>
+        <v>747</v>
       </c>
       <c r="E984" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F984" s="38" t="s">
-        <v>1539</v>
+        <v>737</v>
       </c>
       <c r="G984" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="H984" s="36" t="s">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="I984" s="36" t="s">
-        <v>1583</v>
+        <v>748</v>
       </c>
       <c r="J984" s="38" t="s">
         <v>125</v>
@@ -93271,8 +93273,8 @@
       <c r="N984" s="39">
         <v>0</v>
       </c>
-      <c r="O984" s="39">
-        <v>519875</v>
+      <c r="O984" s="59">
+        <v>1527385</v>
       </c>
       <c r="P984" s="39">
         <v>0</v>
@@ -93280,7 +93282,7 @@
     </row>
     <row r="985" spans="1:16">
       <c r="A985" s="36" t="s">
-        <v>1584</v>
+        <v>121</v>
       </c>
       <c r="B985" s="37" t="s">
         <v>118</v>
@@ -93289,22 +93291,22 @@
         <v>119</v>
       </c>
       <c r="D985" s="36" t="s">
-        <v>1585</v>
+        <v>897</v>
       </c>
       <c r="E985" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F985" s="38" t="s">
-        <v>1539</v>
+        <v>882</v>
       </c>
       <c r="G985" s="36" t="s">
-        <v>1544</v>
+        <v>898</v>
       </c>
       <c r="H985" s="36" t="s">
-        <v>1544</v>
+        <v>898</v>
       </c>
       <c r="I985" s="36" t="s">
-        <v>785</v>
+        <v>899</v>
       </c>
       <c r="J985" s="38" t="s">
         <v>125</v>
@@ -93321,8 +93323,8 @@
       <c r="N985" s="39">
         <v>0</v>
       </c>
-      <c r="O985" s="39">
-        <v>682960</v>
+      <c r="O985" s="59">
+        <v>1462280</v>
       </c>
       <c r="P985" s="39">
         <v>0</v>
@@ -93330,7 +93332,7 @@
     </row>
     <row r="986" spans="1:16">
       <c r="A986" s="36" t="s">
-        <v>1666</v>
+        <v>1467</v>
       </c>
       <c r="B986" s="37" t="s">
         <v>118</v>
@@ -93339,22 +93341,22 @@
         <v>119</v>
       </c>
       <c r="D986" s="36" t="s">
-        <v>1667</v>
+        <v>1468</v>
       </c>
       <c r="E986" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F986" s="38" t="s">
-        <v>1663</v>
+        <v>1451</v>
       </c>
       <c r="G986" s="36" t="s">
-        <v>1668</v>
+        <v>1469</v>
       </c>
       <c r="H986" s="36" t="s">
-        <v>1668</v>
+        <v>1469</v>
       </c>
       <c r="I986" s="36" t="s">
-        <v>1669</v>
+        <v>1470</v>
       </c>
       <c r="J986" s="38" t="s">
         <v>125</v>
@@ -93371,8 +93373,8 @@
       <c r="N986" s="39">
         <v>0</v>
       </c>
-      <c r="O986" s="39">
-        <v>14359000</v>
+      <c r="O986" s="59">
+        <v>1456234</v>
       </c>
       <c r="P986" s="39">
         <v>0</v>
@@ -93380,7 +93382,7 @@
     </row>
     <row r="987" spans="1:16">
       <c r="A987" s="36" t="s">
-        <v>1751</v>
+        <v>755</v>
       </c>
       <c r="B987" s="37" t="s">
         <v>118</v>
@@ -93389,22 +93391,22 @@
         <v>119</v>
       </c>
       <c r="D987" s="36" t="s">
-        <v>1752</v>
+        <v>756</v>
       </c>
       <c r="E987" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F987" s="38" t="s">
-        <v>1745</v>
+        <v>737</v>
       </c>
       <c r="G987" s="36" t="s">
-        <v>1753</v>
+        <v>738</v>
       </c>
       <c r="H987" s="36" t="s">
-        <v>1753</v>
+        <v>738</v>
       </c>
       <c r="I987" s="36" t="s">
-        <v>1754</v>
+        <v>757</v>
       </c>
       <c r="J987" s="38" t="s">
         <v>125</v>
@@ -93421,8 +93423,8 @@
       <c r="N987" s="39">
         <v>0</v>
       </c>
-      <c r="O987" s="39">
-        <v>118387642</v>
+      <c r="O987" s="59">
+        <v>1444688</v>
       </c>
       <c r="P987" s="39">
         <v>0</v>
@@ -93430,7 +93432,7 @@
     </row>
     <row r="988" spans="1:16">
       <c r="A988" s="36" t="s">
-        <v>1855</v>
+        <v>880</v>
       </c>
       <c r="B988" s="37" t="s">
         <v>118</v>
@@ -93439,22 +93441,22 @@
         <v>119</v>
       </c>
       <c r="D988" s="36" t="s">
-        <v>1856</v>
+        <v>881</v>
       </c>
       <c r="E988" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F988" s="38" t="s">
-        <v>1839</v>
+        <v>882</v>
       </c>
       <c r="G988" s="36" t="s">
-        <v>1857</v>
+        <v>883</v>
       </c>
       <c r="H988" s="36" t="s">
-        <v>1857</v>
+        <v>883</v>
       </c>
       <c r="I988" s="36" t="s">
-        <v>1858</v>
+        <v>884</v>
       </c>
       <c r="J988" s="38" t="s">
         <v>125</v>
@@ -93471,8 +93473,8 @@
       <c r="N988" s="39">
         <v>0</v>
       </c>
-      <c r="O988" s="39">
-        <v>124537361</v>
+      <c r="O988" s="59">
+        <v>1246783</v>
       </c>
       <c r="P988" s="39">
         <v>0</v>
@@ -93480,7 +93482,7 @@
     </row>
     <row r="989" spans="1:16">
       <c r="A989" s="36" t="s">
-        <v>1859</v>
+        <v>743</v>
       </c>
       <c r="B989" s="37" t="s">
         <v>118</v>
@@ -93489,22 +93491,22 @@
         <v>119</v>
       </c>
       <c r="D989" s="36" t="s">
-        <v>1860</v>
+        <v>744</v>
       </c>
       <c r="E989" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F989" s="38" t="s">
-        <v>1839</v>
+        <v>737</v>
       </c>
       <c r="G989" s="36" t="s">
-        <v>1861</v>
+        <v>738</v>
       </c>
       <c r="H989" s="36" t="s">
-        <v>1861</v>
+        <v>738</v>
       </c>
       <c r="I989" s="36" t="s">
-        <v>1862</v>
+        <v>745</v>
       </c>
       <c r="J989" s="38" t="s">
         <v>125</v>
@@ -93521,8 +93523,8 @@
       <c r="N989" s="39">
         <v>0</v>
       </c>
-      <c r="O989" s="39">
-        <v>150000</v>
+      <c r="O989" s="59">
+        <v>1223323</v>
       </c>
       <c r="P989" s="39">
         <v>0</v>
@@ -93530,7 +93532,7 @@
     </row>
     <row r="990" spans="1:16">
       <c r="A990" s="36" t="s">
-        <v>1970</v>
+        <v>780</v>
       </c>
       <c r="B990" s="37" t="s">
         <v>118</v>
@@ -93539,22 +93541,22 @@
         <v>119</v>
       </c>
       <c r="D990" s="36" t="s">
-        <v>1971</v>
+        <v>781</v>
       </c>
       <c r="E990" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F990" s="38" t="s">
-        <v>1960</v>
+        <v>737</v>
       </c>
       <c r="G990" s="36" t="s">
-        <v>1972</v>
+        <v>738</v>
       </c>
       <c r="H990" s="36" t="s">
-        <v>1972</v>
+        <v>738</v>
       </c>
       <c r="I990" s="36" t="s">
-        <v>1973</v>
+        <v>782</v>
       </c>
       <c r="J990" s="38" t="s">
         <v>125</v>
@@ -93571,8 +93573,8 @@
       <c r="N990" s="39">
         <v>0</v>
       </c>
-      <c r="O990" s="39">
-        <v>5097052</v>
+      <c r="O990" s="59">
+        <v>1153300</v>
       </c>
       <c r="P990" s="39">
         <v>0</v>
@@ -93580,31 +93582,31 @@
     </row>
     <row r="991" spans="1:16">
       <c r="A991" s="36" t="s">
-        <v>2068</v>
+        <v>2888</v>
       </c>
       <c r="B991" s="37" t="s">
-        <v>118</v>
+        <v>2864</v>
       </c>
       <c r="C991" s="36" t="s">
-        <v>119</v>
+        <v>2865</v>
       </c>
       <c r="D991" s="36" t="s">
-        <v>2069</v>
+        <v>2889</v>
       </c>
       <c r="E991" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F991" s="38" t="s">
-        <v>2050</v>
+        <v>1451</v>
       </c>
       <c r="G991" s="36" t="s">
-        <v>2070</v>
+        <v>2890</v>
       </c>
       <c r="H991" s="36" t="s">
-        <v>2070</v>
+        <v>2890</v>
       </c>
       <c r="I991" s="36" t="s">
-        <v>888</v>
+        <v>2891</v>
       </c>
       <c r="J991" s="38" t="s">
         <v>125</v>
@@ -93622,7 +93624,7 @@
         <v>0</v>
       </c>
       <c r="O991" s="39">
-        <v>429487.66</v>
+        <v>1106622</v>
       </c>
       <c r="P991" s="39">
         <v>0</v>
@@ -93630,7 +93632,7 @@
     </row>
     <row r="992" spans="1:16">
       <c r="A992" s="36" t="s">
-        <v>2071</v>
+        <v>885</v>
       </c>
       <c r="B992" s="37" t="s">
         <v>118</v>
@@ -93639,22 +93641,22 @@
         <v>119</v>
       </c>
       <c r="D992" s="36" t="s">
-        <v>2072</v>
+        <v>886</v>
       </c>
       <c r="E992" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F992" s="38" t="s">
-        <v>2050</v>
+        <v>882</v>
       </c>
       <c r="G992" s="36" t="s">
-        <v>2073</v>
+        <v>887</v>
       </c>
       <c r="H992" s="36" t="s">
-        <v>2073</v>
+        <v>887</v>
       </c>
       <c r="I992" s="36" t="s">
-        <v>2074</v>
+        <v>888</v>
       </c>
       <c r="J992" s="38" t="s">
         <v>125</v>
@@ -93671,8 +93673,8 @@
       <c r="N992" s="39">
         <v>0</v>
       </c>
-      <c r="O992" s="39">
-        <v>11592170</v>
+      <c r="O992" s="59">
+        <v>1048778</v>
       </c>
       <c r="P992" s="39">
         <v>0</v>
@@ -93680,7 +93682,7 @@
     </row>
     <row r="993" spans="1:16">
       <c r="A993" s="36" t="s">
-        <v>2075</v>
+        <v>2367</v>
       </c>
       <c r="B993" s="37" t="s">
         <v>118</v>
@@ -93689,22 +93691,22 @@
         <v>119</v>
       </c>
       <c r="D993" s="36" t="s">
-        <v>2076</v>
+        <v>2368</v>
       </c>
       <c r="E993" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F993" s="38" t="s">
-        <v>2050</v>
+        <v>2310</v>
       </c>
       <c r="G993" s="36" t="s">
-        <v>2077</v>
+        <v>2337</v>
       </c>
       <c r="H993" s="36" t="s">
-        <v>2077</v>
+        <v>2337</v>
       </c>
       <c r="I993" s="36" t="s">
-        <v>2078</v>
+        <v>764</v>
       </c>
       <c r="J993" s="38" t="s">
         <v>125</v>
@@ -93721,8 +93723,8 @@
       <c r="N993" s="39">
         <v>0</v>
       </c>
-      <c r="O993" s="39">
-        <v>4782875</v>
+      <c r="O993" s="59">
+        <v>1042971</v>
       </c>
       <c r="P993" s="39">
         <v>0</v>
@@ -93730,7 +93732,7 @@
     </row>
     <row r="994" spans="1:16">
       <c r="A994" s="36" t="s">
-        <v>2331</v>
+        <v>761</v>
       </c>
       <c r="B994" s="37" t="s">
         <v>118</v>
@@ -93739,22 +93741,22 @@
         <v>119</v>
       </c>
       <c r="D994" s="36" t="s">
-        <v>2332</v>
+        <v>762</v>
       </c>
       <c r="E994" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F994" s="38" t="s">
-        <v>2310</v>
+        <v>737</v>
       </c>
       <c r="G994" s="36" t="s">
-        <v>2333</v>
+        <v>738</v>
       </c>
       <c r="H994" s="36" t="s">
-        <v>2333</v>
+        <v>763</v>
       </c>
       <c r="I994" s="36" t="s">
-        <v>2334</v>
+        <v>764</v>
       </c>
       <c r="J994" s="38" t="s">
         <v>125</v>
@@ -93771,8 +93773,8 @@
       <c r="N994" s="39">
         <v>0</v>
       </c>
-      <c r="O994" s="39">
-        <v>43930851</v>
+      <c r="O994" s="59">
+        <v>1012297</v>
       </c>
       <c r="P994" s="39">
         <v>0</v>
@@ -93780,7 +93782,7 @@
     </row>
     <row r="995" spans="1:16">
       <c r="A995" s="36" t="s">
-        <v>2335</v>
+        <v>1542</v>
       </c>
       <c r="B995" s="37" t="s">
         <v>118</v>
@@ -93789,22 +93791,22 @@
         <v>119</v>
       </c>
       <c r="D995" s="36" t="s">
-        <v>2336</v>
+        <v>1543</v>
       </c>
       <c r="E995" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F995" s="38" t="s">
-        <v>2310</v>
+        <v>1539</v>
       </c>
       <c r="G995" s="36" t="s">
-        <v>2337</v>
+        <v>1544</v>
       </c>
       <c r="H995" s="36" t="s">
-        <v>2337</v>
+        <v>1544</v>
       </c>
       <c r="I995" s="36" t="s">
-        <v>2338</v>
+        <v>1545</v>
       </c>
       <c r="J995" s="38" t="s">
         <v>125</v>
@@ -93821,8 +93823,8 @@
       <c r="N995" s="39">
         <v>0</v>
       </c>
-      <c r="O995" s="39">
-        <v>793071</v>
+      <c r="O995" s="59">
+        <v>882470</v>
       </c>
       <c r="P995" s="39">
         <v>0</v>
@@ -93830,7 +93832,7 @@
     </row>
     <row r="996" spans="1:16">
       <c r="A996" s="36" t="s">
-        <v>2339</v>
+        <v>758</v>
       </c>
       <c r="B996" s="37" t="s">
         <v>118</v>
@@ -93839,22 +93841,22 @@
         <v>119</v>
       </c>
       <c r="D996" s="36" t="s">
-        <v>2340</v>
+        <v>759</v>
       </c>
       <c r="E996" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F996" s="38" t="s">
-        <v>2310</v>
+        <v>737</v>
       </c>
       <c r="G996" s="36" t="s">
-        <v>2337</v>
+        <v>738</v>
       </c>
       <c r="H996" s="36" t="s">
-        <v>2337</v>
+        <v>738</v>
       </c>
       <c r="I996" s="36" t="s">
-        <v>2341</v>
+        <v>760</v>
       </c>
       <c r="J996" s="38" t="s">
         <v>125</v>
@@ -93871,8 +93873,8 @@
       <c r="N996" s="39">
         <v>0</v>
       </c>
-      <c r="O996" s="39">
-        <v>476606</v>
+      <c r="O996" s="59">
+        <v>874753</v>
       </c>
       <c r="P996" s="39">
         <v>0</v>
@@ -93880,7 +93882,7 @@
     </row>
     <row r="997" spans="1:16">
       <c r="A997" s="36" t="s">
-        <v>2342</v>
+        <v>2363</v>
       </c>
       <c r="B997" s="37" t="s">
         <v>118</v>
@@ -93889,7 +93891,7 @@
         <v>119</v>
       </c>
       <c r="D997" s="36" t="s">
-        <v>2343</v>
+        <v>2364</v>
       </c>
       <c r="E997" s="36" t="s">
         <v>208</v>
@@ -93904,7 +93906,7 @@
         <v>2337</v>
       </c>
       <c r="I997" s="36" t="s">
-        <v>2344</v>
+        <v>767</v>
       </c>
       <c r="J997" s="38" t="s">
         <v>125</v>
@@ -93921,8 +93923,8 @@
       <c r="N997" s="39">
         <v>0</v>
       </c>
-      <c r="O997" s="39">
-        <v>701812</v>
+      <c r="O997" s="59">
+        <v>838224</v>
       </c>
       <c r="P997" s="39">
         <v>0</v>
@@ -93930,7 +93932,7 @@
     </row>
     <row r="998" spans="1:16">
       <c r="A998" s="36" t="s">
-        <v>2345</v>
+        <v>1579</v>
       </c>
       <c r="B998" s="37" t="s">
         <v>118</v>
@@ -93939,22 +93941,22 @@
         <v>119</v>
       </c>
       <c r="D998" s="36" t="s">
-        <v>2346</v>
+        <v>1580</v>
       </c>
       <c r="E998" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F998" s="38" t="s">
-        <v>2310</v>
+        <v>1539</v>
       </c>
       <c r="G998" s="36" t="s">
-        <v>2337</v>
+        <v>1544</v>
       </c>
       <c r="H998" s="36" t="s">
-        <v>2337</v>
+        <v>1544</v>
       </c>
       <c r="I998" s="36" t="s">
-        <v>2347</v>
+        <v>779</v>
       </c>
       <c r="J998" s="38" t="s">
         <v>125</v>
@@ -93971,8 +93973,8 @@
       <c r="N998" s="39">
         <v>0</v>
       </c>
-      <c r="O998" s="39">
-        <v>599713</v>
+      <c r="O998" s="59">
+        <v>806114</v>
       </c>
       <c r="P998" s="39">
         <v>0</v>
@@ -93980,7 +93982,7 @@
     </row>
     <row r="999" spans="1:16">
       <c r="A999" s="36" t="s">
-        <v>2348</v>
+        <v>1571</v>
       </c>
       <c r="B999" s="37" t="s">
         <v>118</v>
@@ -93989,22 +93991,22 @@
         <v>119</v>
       </c>
       <c r="D999" s="36" t="s">
-        <v>2349</v>
+        <v>1572</v>
       </c>
       <c r="E999" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F999" s="38" t="s">
-        <v>2310</v>
+        <v>1539</v>
       </c>
       <c r="G999" s="36" t="s">
-        <v>2337</v>
+        <v>1544</v>
       </c>
       <c r="H999" s="36" t="s">
-        <v>2337</v>
+        <v>1544</v>
       </c>
       <c r="I999" s="36" t="s">
-        <v>2350</v>
+        <v>770</v>
       </c>
       <c r="J999" s="38" t="s">
         <v>125</v>
@@ -94021,8 +94023,8 @@
       <c r="N999" s="39">
         <v>0</v>
       </c>
-      <c r="O999" s="39">
-        <v>616693</v>
+      <c r="O999" s="59">
+        <v>795030</v>
       </c>
       <c r="P999" s="39">
         <v>0</v>
@@ -94030,7 +94032,7 @@
     </row>
     <row r="1000" spans="1:16">
       <c r="A1000" s="36" t="s">
-        <v>2351</v>
+        <v>2335</v>
       </c>
       <c r="B1000" s="37" t="s">
         <v>118</v>
@@ -94039,7 +94041,7 @@
         <v>119</v>
       </c>
       <c r="D1000" s="36" t="s">
-        <v>2352</v>
+        <v>2336</v>
       </c>
       <c r="E1000" s="36" t="s">
         <v>208</v>
@@ -94054,7 +94056,7 @@
         <v>2337</v>
       </c>
       <c r="I1000" s="36" t="s">
-        <v>2350</v>
+        <v>2338</v>
       </c>
       <c r="J1000" s="38" t="s">
         <v>125</v>
@@ -94071,8 +94073,8 @@
       <c r="N1000" s="39">
         <v>0</v>
       </c>
-      <c r="O1000" s="39">
-        <v>726606</v>
+      <c r="O1000" s="59">
+        <v>793071</v>
       </c>
       <c r="P1000" s="39">
         <v>0</v>
@@ -94080,7 +94082,7 @@
     </row>
     <row r="1001" spans="1:16">
       <c r="A1001" s="36" t="s">
-        <v>2353</v>
+        <v>774</v>
       </c>
       <c r="B1001" s="37" t="s">
         <v>118</v>
@@ -94089,22 +94091,22 @@
         <v>119</v>
       </c>
       <c r="D1001" s="36" t="s">
-        <v>2354</v>
+        <v>775</v>
       </c>
       <c r="E1001" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1001" s="38" t="s">
-        <v>2310</v>
+        <v>737</v>
       </c>
       <c r="G1001" s="36" t="s">
-        <v>2337</v>
+        <v>738</v>
       </c>
       <c r="H1001" s="36" t="s">
-        <v>2337</v>
+        <v>738</v>
       </c>
       <c r="I1001" s="36" t="s">
-        <v>2355</v>
+        <v>776</v>
       </c>
       <c r="J1001" s="38" t="s">
         <v>125</v>
@@ -94121,8 +94123,8 @@
       <c r="N1001" s="39">
         <v>0</v>
       </c>
-      <c r="O1001" s="39">
-        <v>710747</v>
+      <c r="O1001" s="59">
+        <v>781677</v>
       </c>
       <c r="P1001" s="39">
         <v>0</v>
@@ -94130,7 +94132,7 @@
     </row>
     <row r="1002" spans="1:16">
       <c r="A1002" s="36" t="s">
-        <v>2356</v>
+        <v>2371</v>
       </c>
       <c r="B1002" s="37" t="s">
         <v>118</v>
@@ -94139,7 +94141,7 @@
         <v>119</v>
       </c>
       <c r="D1002" s="36" t="s">
-        <v>2357</v>
+        <v>2372</v>
       </c>
       <c r="E1002" s="36" t="s">
         <v>208</v>
@@ -94154,7 +94156,7 @@
         <v>2337</v>
       </c>
       <c r="I1002" s="36" t="s">
-        <v>2358</v>
+        <v>779</v>
       </c>
       <c r="J1002" s="38" t="s">
         <v>125</v>
@@ -94171,8 +94173,8 @@
       <c r="N1002" s="39">
         <v>0</v>
       </c>
-      <c r="O1002" s="39">
-        <v>325376</v>
+      <c r="O1002" s="59">
+        <v>768138</v>
       </c>
       <c r="P1002" s="39">
         <v>0</v>
@@ -94180,7 +94182,7 @@
     </row>
     <row r="1003" spans="1:16">
       <c r="A1003" s="36" t="s">
-        <v>2359</v>
+        <v>1554</v>
       </c>
       <c r="B1003" s="37" t="s">
         <v>118</v>
@@ -94189,22 +94191,22 @@
         <v>119</v>
       </c>
       <c r="D1003" s="36" t="s">
-        <v>2360</v>
+        <v>1555</v>
       </c>
       <c r="E1003" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1003" s="38" t="s">
-        <v>2310</v>
+        <v>1539</v>
       </c>
       <c r="G1003" s="36" t="s">
-        <v>2337</v>
+        <v>1544</v>
       </c>
       <c r="H1003" s="36" t="s">
-        <v>2337</v>
+        <v>1544</v>
       </c>
       <c r="I1003" s="36" t="s">
-        <v>745</v>
+        <v>1556</v>
       </c>
       <c r="J1003" s="38" t="s">
         <v>125</v>
@@ -94221,8 +94223,8 @@
       <c r="N1003" s="39">
         <v>0</v>
       </c>
-      <c r="O1003" s="39">
-        <v>470836</v>
+      <c r="O1003" s="59">
+        <v>763141</v>
       </c>
       <c r="P1003" s="39">
         <v>0</v>
@@ -94230,7 +94232,7 @@
     </row>
     <row r="1004" spans="1:16">
       <c r="A1004" s="36" t="s">
-        <v>2361</v>
+        <v>1569</v>
       </c>
       <c r="B1004" s="37" t="s">
         <v>118</v>
@@ -94239,22 +94241,22 @@
         <v>119</v>
       </c>
       <c r="D1004" s="36" t="s">
-        <v>2362</v>
+        <v>1570</v>
       </c>
       <c r="E1004" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1004" s="38" t="s">
-        <v>2310</v>
+        <v>1539</v>
       </c>
       <c r="G1004" s="36" t="s">
-        <v>2337</v>
+        <v>1544</v>
       </c>
       <c r="H1004" s="36" t="s">
-        <v>2337</v>
+        <v>1544</v>
       </c>
       <c r="I1004" s="36" t="s">
-        <v>1575</v>
+        <v>767</v>
       </c>
       <c r="J1004" s="38" t="s">
         <v>125</v>
@@ -94271,8 +94273,8 @@
       <c r="N1004" s="39">
         <v>0</v>
       </c>
-      <c r="O1004" s="39">
-        <v>4254384</v>
+      <c r="O1004" s="59">
+        <v>757436</v>
       </c>
       <c r="P1004" s="39">
         <v>0</v>
@@ -94280,7 +94282,7 @@
     </row>
     <row r="1005" spans="1:16">
       <c r="A1005" s="36" t="s">
-        <v>2363</v>
+        <v>2351</v>
       </c>
       <c r="B1005" s="37" t="s">
         <v>118</v>
@@ -94289,7 +94291,7 @@
         <v>119</v>
       </c>
       <c r="D1005" s="36" t="s">
-        <v>2364</v>
+        <v>2352</v>
       </c>
       <c r="E1005" s="36" t="s">
         <v>208</v>
@@ -94304,7 +94306,7 @@
         <v>2337</v>
       </c>
       <c r="I1005" s="36" t="s">
-        <v>767</v>
+        <v>2350</v>
       </c>
       <c r="J1005" s="38" t="s">
         <v>125</v>
@@ -94321,8 +94323,8 @@
       <c r="N1005" s="39">
         <v>0</v>
       </c>
-      <c r="O1005" s="39">
-        <v>838224</v>
+      <c r="O1005" s="59">
+        <v>726606</v>
       </c>
       <c r="P1005" s="39">
         <v>0</v>
@@ -94330,7 +94332,7 @@
     </row>
     <row r="1006" spans="1:16">
       <c r="A1006" s="36" t="s">
-        <v>2365</v>
+        <v>2373</v>
       </c>
       <c r="B1006" s="37" t="s">
         <v>118</v>
@@ -94339,7 +94341,7 @@
         <v>119</v>
       </c>
       <c r="D1006" s="36" t="s">
-        <v>2366</v>
+        <v>2374</v>
       </c>
       <c r="E1006" s="36" t="s">
         <v>208</v>
@@ -94354,7 +94356,7 @@
         <v>2337</v>
       </c>
       <c r="I1006" s="36" t="s">
-        <v>770</v>
+        <v>1583</v>
       </c>
       <c r="J1006" s="38" t="s">
         <v>125</v>
@@ -94371,8 +94373,8 @@
       <c r="N1006" s="39">
         <v>0</v>
       </c>
-      <c r="O1006" s="39">
-        <v>721530</v>
+      <c r="O1006" s="59">
+        <v>726324</v>
       </c>
       <c r="P1006" s="39">
         <v>0</v>
@@ -94380,7 +94382,7 @@
     </row>
     <row r="1007" spans="1:16">
       <c r="A1007" s="36" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="B1007" s="37" t="s">
         <v>118</v>
@@ -94389,7 +94391,7 @@
         <v>119</v>
       </c>
       <c r="D1007" s="36" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="E1007" s="36" t="s">
         <v>208</v>
@@ -94404,7 +94406,7 @@
         <v>2337</v>
       </c>
       <c r="I1007" s="36" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="J1007" s="38" t="s">
         <v>125</v>
@@ -94421,8 +94423,8 @@
       <c r="N1007" s="39">
         <v>0</v>
       </c>
-      <c r="O1007" s="39">
-        <v>1042971</v>
+      <c r="O1007" s="59">
+        <v>721530</v>
       </c>
       <c r="P1007" s="39">
         <v>0</v>
@@ -94430,7 +94432,7 @@
     </row>
     <row r="1008" spans="1:16">
       <c r="A1008" s="36" t="s">
-        <v>2369</v>
+        <v>2353</v>
       </c>
       <c r="B1008" s="37" t="s">
         <v>118</v>
@@ -94439,7 +94441,7 @@
         <v>119</v>
       </c>
       <c r="D1008" s="36" t="s">
-        <v>2370</v>
+        <v>2354</v>
       </c>
       <c r="E1008" s="36" t="s">
         <v>208</v>
@@ -94454,7 +94456,7 @@
         <v>2337</v>
       </c>
       <c r="I1008" s="36" t="s">
-        <v>776</v>
+        <v>2355</v>
       </c>
       <c r="J1008" s="38" t="s">
         <v>125</v>
@@ -94471,8 +94473,8 @@
       <c r="N1008" s="39">
         <v>0</v>
       </c>
-      <c r="O1008" s="39">
-        <v>450181</v>
+      <c r="O1008" s="59">
+        <v>710747</v>
       </c>
       <c r="P1008" s="39">
         <v>0</v>
@@ -94480,7 +94482,7 @@
     </row>
     <row r="1009" spans="1:16">
       <c r="A1009" s="36" t="s">
-        <v>2371</v>
+        <v>2342</v>
       </c>
       <c r="B1009" s="37" t="s">
         <v>118</v>
@@ -94489,7 +94491,7 @@
         <v>119</v>
       </c>
       <c r="D1009" s="36" t="s">
-        <v>2372</v>
+        <v>2343</v>
       </c>
       <c r="E1009" s="36" t="s">
         <v>208</v>
@@ -94504,7 +94506,7 @@
         <v>2337</v>
       </c>
       <c r="I1009" s="36" t="s">
-        <v>779</v>
+        <v>2344</v>
       </c>
       <c r="J1009" s="38" t="s">
         <v>125</v>
@@ -94521,8 +94523,8 @@
       <c r="N1009" s="39">
         <v>0</v>
       </c>
-      <c r="O1009" s="39">
-        <v>768138</v>
+      <c r="O1009" s="59">
+        <v>701812</v>
       </c>
       <c r="P1009" s="39">
         <v>0</v>
@@ -94530,7 +94532,7 @@
     </row>
     <row r="1010" spans="1:16">
       <c r="A1010" s="36" t="s">
-        <v>2373</v>
+        <v>749</v>
       </c>
       <c r="B1010" s="37" t="s">
         <v>118</v>
@@ -94539,22 +94541,22 @@
         <v>119</v>
       </c>
       <c r="D1010" s="36" t="s">
-        <v>2374</v>
+        <v>750</v>
       </c>
       <c r="E1010" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1010" s="38" t="s">
-        <v>2310</v>
+        <v>737</v>
       </c>
       <c r="G1010" s="36" t="s">
-        <v>2337</v>
+        <v>738</v>
       </c>
       <c r="H1010" s="36" t="s">
-        <v>2337</v>
+        <v>738</v>
       </c>
       <c r="I1010" s="36" t="s">
-        <v>1583</v>
+        <v>751</v>
       </c>
       <c r="J1010" s="38" t="s">
         <v>125</v>
@@ -94571,8 +94573,8 @@
       <c r="N1010" s="39">
         <v>0</v>
       </c>
-      <c r="O1010" s="39">
-        <v>726324</v>
+      <c r="O1010" s="59">
+        <v>685075</v>
       </c>
       <c r="P1010" s="39">
         <v>0</v>
@@ -94580,7 +94582,7 @@
     </row>
     <row r="1011" spans="1:16">
       <c r="A1011" s="36" t="s">
-        <v>2375</v>
+        <v>1549</v>
       </c>
       <c r="B1011" s="37" t="s">
         <v>118</v>
@@ -94589,22 +94591,22 @@
         <v>119</v>
       </c>
       <c r="D1011" s="36" t="s">
-        <v>2376</v>
+        <v>1550</v>
       </c>
       <c r="E1011" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1011" s="38" t="s">
-        <v>2310</v>
+        <v>1539</v>
       </c>
       <c r="G1011" s="36" t="s">
-        <v>2337</v>
+        <v>1544</v>
       </c>
       <c r="H1011" s="36" t="s">
-        <v>2337</v>
+        <v>1544</v>
       </c>
       <c r="I1011" s="36" t="s">
-        <v>785</v>
+        <v>748</v>
       </c>
       <c r="J1011" s="38" t="s">
         <v>125</v>
@@ -94621,8 +94623,8 @@
       <c r="N1011" s="39">
         <v>0</v>
       </c>
-      <c r="O1011" s="39">
-        <v>662166</v>
+      <c r="O1011" s="59">
+        <v>683748</v>
       </c>
       <c r="P1011" s="39">
         <v>0</v>
@@ -94630,7 +94632,7 @@
     </row>
     <row r="1012" spans="1:16">
       <c r="A1012" s="36" t="s">
-        <v>2472</v>
+        <v>1584</v>
       </c>
       <c r="B1012" s="37" t="s">
         <v>118</v>
@@ -94639,22 +94641,22 @@
         <v>119</v>
       </c>
       <c r="D1012" s="36" t="s">
-        <v>2473</v>
+        <v>1585</v>
       </c>
       <c r="E1012" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1012" s="38" t="s">
-        <v>2446</v>
+        <v>1539</v>
       </c>
       <c r="G1012" s="36" t="s">
-        <v>2474</v>
+        <v>1544</v>
       </c>
       <c r="H1012" s="36" t="s">
-        <v>2474</v>
+        <v>1544</v>
       </c>
       <c r="I1012" s="36" t="s">
-        <v>852</v>
+        <v>785</v>
       </c>
       <c r="J1012" s="38" t="s">
         <v>125</v>
@@ -94671,8 +94673,8 @@
       <c r="N1012" s="39">
         <v>0</v>
       </c>
-      <c r="O1012" s="39">
-        <v>21104267</v>
+      <c r="O1012" s="59">
+        <v>682960</v>
       </c>
       <c r="P1012" s="39">
         <v>0</v>
@@ -94680,7 +94682,7 @@
     </row>
     <row r="1013" spans="1:16">
       <c r="A1013" s="36" t="s">
-        <v>2527</v>
+        <v>1551</v>
       </c>
       <c r="B1013" s="37" t="s">
         <v>118</v>
@@ -94689,22 +94691,22 @@
         <v>119</v>
       </c>
       <c r="D1013" s="36" t="s">
-        <v>2528</v>
+        <v>1552</v>
       </c>
       <c r="E1013" s="36" t="s">
-        <v>1887</v>
+        <v>208</v>
       </c>
       <c r="F1013" s="38" t="s">
-        <v>2446</v>
+        <v>1539</v>
       </c>
       <c r="G1013" s="36" t="s">
-        <v>2525</v>
+        <v>1544</v>
       </c>
       <c r="H1013" s="36" t="s">
-        <v>2525</v>
+        <v>1544</v>
       </c>
       <c r="I1013" s="36" t="s">
-        <v>2526</v>
+        <v>1553</v>
       </c>
       <c r="J1013" s="38" t="s">
         <v>125</v>
@@ -94721,8 +94723,8 @@
       <c r="N1013" s="39">
         <v>0</v>
       </c>
-      <c r="O1013" s="39">
-        <v>20000000</v>
+      <c r="O1013" s="59">
+        <v>663141</v>
       </c>
       <c r="P1013" s="39">
         <v>0</v>
@@ -94730,7 +94732,7 @@
     </row>
     <row r="1014" spans="1:16">
       <c r="A1014" s="36" t="s">
-        <v>2537</v>
+        <v>2375</v>
       </c>
       <c r="B1014" s="37" t="s">
         <v>118</v>
@@ -94739,22 +94741,22 @@
         <v>119</v>
       </c>
       <c r="D1014" s="36" t="s">
-        <v>2538</v>
+        <v>2376</v>
       </c>
       <c r="E1014" s="36" t="s">
-        <v>1887</v>
+        <v>208</v>
       </c>
       <c r="F1014" s="38" t="s">
-        <v>2446</v>
+        <v>2310</v>
       </c>
       <c r="G1014" s="36" t="s">
-        <v>2525</v>
+        <v>2337</v>
       </c>
       <c r="H1014" s="36" t="s">
-        <v>2525</v>
+        <v>2337</v>
       </c>
       <c r="I1014" s="36" t="s">
-        <v>2536</v>
+        <v>785</v>
       </c>
       <c r="J1014" s="38" t="s">
         <v>125</v>
@@ -94771,8 +94773,8 @@
       <c r="N1014" s="39">
         <v>0</v>
       </c>
-      <c r="O1014" s="39">
-        <v>3807277.76</v>
+      <c r="O1014" s="59">
+        <v>662166</v>
       </c>
       <c r="P1014" s="39">
         <v>0</v>
@@ -94780,31 +94782,31 @@
     </row>
     <row r="1015" spans="1:16">
       <c r="A1015" s="36" t="s">
-        <v>2572</v>
+        <v>1567</v>
       </c>
       <c r="B1015" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1015" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1015" s="36" t="s">
-        <v>2573</v>
+        <v>1568</v>
       </c>
       <c r="E1015" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1015" s="38" t="s">
-        <v>422</v>
+        <v>1539</v>
       </c>
       <c r="G1015" s="36" t="s">
-        <v>2574</v>
+        <v>1544</v>
       </c>
       <c r="H1015" s="36" t="s">
-        <v>2574</v>
+        <v>1544</v>
       </c>
       <c r="I1015" s="36" t="s">
-        <v>2074</v>
+        <v>764</v>
       </c>
       <c r="J1015" s="38" t="s">
         <v>125</v>
@@ -94821,8 +94823,8 @@
       <c r="N1015" s="39">
         <v>0</v>
       </c>
-      <c r="O1015" s="39">
-        <v>6443665</v>
+      <c r="O1015" s="59">
+        <v>658688</v>
       </c>
       <c r="P1015" s="39">
         <v>0</v>
@@ -94830,31 +94832,31 @@
     </row>
     <row r="1016" spans="1:16">
       <c r="A1016" s="36" t="s">
-        <v>2575</v>
+        <v>1573</v>
       </c>
       <c r="B1016" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1016" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1016" s="36" t="s">
-        <v>2576</v>
+        <v>1574</v>
       </c>
       <c r="E1016" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1016" s="38" t="s">
-        <v>846</v>
+        <v>1539</v>
       </c>
       <c r="G1016" s="36" t="s">
-        <v>2577</v>
+        <v>1544</v>
       </c>
       <c r="H1016" s="36" t="s">
-        <v>2577</v>
+        <v>1544</v>
       </c>
       <c r="I1016" s="36" t="s">
-        <v>1754</v>
+        <v>1575</v>
       </c>
       <c r="J1016" s="38" t="s">
         <v>125</v>
@@ -94871,8 +94873,8 @@
       <c r="N1016" s="39">
         <v>0</v>
       </c>
-      <c r="O1016" s="39">
-        <v>62128875</v>
+      <c r="O1016" s="59">
+        <v>657436</v>
       </c>
       <c r="P1016" s="39">
         <v>0</v>
@@ -94880,31 +94882,31 @@
     </row>
     <row r="1017" spans="1:16">
       <c r="A1017" s="36" t="s">
-        <v>2578</v>
+        <v>1560</v>
       </c>
       <c r="B1017" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1017" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1017" s="36" t="s">
-        <v>2579</v>
+        <v>1561</v>
       </c>
       <c r="E1017" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1017" s="38" t="s">
-        <v>1218</v>
+        <v>1539</v>
       </c>
       <c r="G1017" s="36" t="s">
-        <v>2580</v>
+        <v>1544</v>
       </c>
       <c r="H1017" s="36" t="s">
-        <v>2580</v>
+        <v>1544</v>
       </c>
       <c r="I1017" s="36" t="s">
-        <v>2334</v>
+        <v>760</v>
       </c>
       <c r="J1017" s="38" t="s">
         <v>125</v>
@@ -94921,8 +94923,8 @@
       <c r="N1017" s="39">
         <v>0</v>
       </c>
-      <c r="O1017" s="39">
-        <v>35727864</v>
+      <c r="O1017" s="59">
+        <v>646920</v>
       </c>
       <c r="P1017" s="39">
         <v>0</v>
@@ -94930,31 +94932,31 @@
     </row>
     <row r="1018" spans="1:16">
       <c r="A1018" s="36" t="s">
-        <v>2581</v>
+        <v>1557</v>
       </c>
       <c r="B1018" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1018" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1018" s="36" t="s">
-        <v>2582</v>
+        <v>1558</v>
       </c>
       <c r="E1018" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1018" s="38" t="s">
-        <v>1218</v>
+        <v>1539</v>
       </c>
       <c r="G1018" s="36" t="s">
-        <v>2583</v>
+        <v>1544</v>
       </c>
       <c r="H1018" s="36" t="s">
-        <v>2583</v>
+        <v>1544</v>
       </c>
       <c r="I1018" s="36" t="s">
-        <v>2584</v>
+        <v>1559</v>
       </c>
       <c r="J1018" s="38" t="s">
         <v>125</v>
@@ -94971,8 +94973,8 @@
       <c r="N1018" s="39">
         <v>0</v>
       </c>
-      <c r="O1018" s="39">
-        <v>12635584</v>
+      <c r="O1018" s="59">
+        <v>639621</v>
       </c>
       <c r="P1018" s="39">
         <v>0</v>
@@ -94980,31 +94982,31 @@
     </row>
     <row r="1019" spans="1:16">
       <c r="A1019" s="36" t="s">
-        <v>2585</v>
+        <v>1565</v>
       </c>
       <c r="B1019" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1019" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1019" s="36" t="s">
-        <v>2586</v>
+        <v>1566</v>
       </c>
       <c r="E1019" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1019" s="38" t="s">
-        <v>1317</v>
+        <v>1539</v>
       </c>
       <c r="G1019" s="36" t="s">
-        <v>2587</v>
+        <v>1544</v>
       </c>
       <c r="H1019" s="36" t="s">
-        <v>2587</v>
+        <v>1544</v>
       </c>
       <c r="I1019" s="36" t="s">
-        <v>2588</v>
+        <v>745</v>
       </c>
       <c r="J1019" s="38" t="s">
         <v>125</v>
@@ -95021,8 +95023,8 @@
       <c r="N1019" s="39">
         <v>0</v>
       </c>
-      <c r="O1019" s="39">
-        <v>14584300</v>
+      <c r="O1019" s="59">
+        <v>633822</v>
       </c>
       <c r="P1019" s="39">
         <v>0</v>
@@ -95030,31 +95032,31 @@
     </row>
     <row r="1020" spans="1:16">
       <c r="A1020" s="36" t="s">
-        <v>2589</v>
+        <v>2348</v>
       </c>
       <c r="B1020" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1020" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1020" s="36" t="s">
-        <v>2590</v>
+        <v>2349</v>
       </c>
       <c r="E1020" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1020" s="38" t="s">
-        <v>1745</v>
+        <v>2310</v>
       </c>
       <c r="G1020" s="36" t="s">
-        <v>2591</v>
+        <v>2337</v>
       </c>
       <c r="H1020" s="36" t="s">
-        <v>2591</v>
+        <v>2337</v>
       </c>
       <c r="I1020" s="36" t="s">
-        <v>2592</v>
+        <v>2350</v>
       </c>
       <c r="J1020" s="38" t="s">
         <v>125</v>
@@ -95071,8 +95073,8 @@
       <c r="N1020" s="39">
         <v>0</v>
       </c>
-      <c r="O1020" s="39">
-        <v>1534877</v>
+      <c r="O1020" s="59">
+        <v>616693</v>
       </c>
       <c r="P1020" s="39">
         <v>0</v>
@@ -95080,31 +95082,31 @@
     </row>
     <row r="1021" spans="1:16">
       <c r="A1021" s="36" t="s">
-        <v>2593</v>
+        <v>2345</v>
       </c>
       <c r="B1021" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1021" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1021" s="36" t="s">
-        <v>2594</v>
+        <v>2346</v>
       </c>
       <c r="E1021" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1021" s="38" t="s">
-        <v>1839</v>
+        <v>2310</v>
       </c>
       <c r="G1021" s="36" t="s">
-        <v>2595</v>
+        <v>2337</v>
       </c>
       <c r="H1021" s="36" t="s">
-        <v>2595</v>
+        <v>2337</v>
       </c>
       <c r="I1021" s="36" t="s">
-        <v>2596</v>
+        <v>2347</v>
       </c>
       <c r="J1021" s="38" t="s">
         <v>125</v>
@@ -95121,8 +95123,8 @@
       <c r="N1021" s="39">
         <v>0</v>
       </c>
-      <c r="O1021" s="39">
-        <v>300000</v>
+      <c r="O1021" s="59">
+        <v>599713</v>
       </c>
       <c r="P1021" s="39">
         <v>0</v>
@@ -95130,31 +95132,31 @@
     </row>
     <row r="1022" spans="1:16">
       <c r="A1022" s="36" t="s">
-        <v>2597</v>
+        <v>1581</v>
       </c>
       <c r="B1022" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1022" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1022" s="36" t="s">
-        <v>2598</v>
+        <v>1582</v>
       </c>
       <c r="E1022" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1022" s="38" t="s">
-        <v>1839</v>
+        <v>1539</v>
       </c>
       <c r="G1022" s="36" t="s">
-        <v>2599</v>
+        <v>1544</v>
       </c>
       <c r="H1022" s="36" t="s">
-        <v>2599</v>
+        <v>1544</v>
       </c>
       <c r="I1022" s="36" t="s">
-        <v>2600</v>
+        <v>1583</v>
       </c>
       <c r="J1022" s="38" t="s">
         <v>125</v>
@@ -95171,8 +95173,8 @@
       <c r="N1022" s="39">
         <v>0</v>
       </c>
-      <c r="O1022" s="39">
-        <v>3000000</v>
+      <c r="O1022" s="59">
+        <v>519875</v>
       </c>
       <c r="P1022" s="39">
         <v>0</v>
@@ -95180,31 +95182,31 @@
     </row>
     <row r="1023" spans="1:16">
       <c r="A1023" s="36" t="s">
-        <v>2601</v>
+        <v>2339</v>
       </c>
       <c r="B1023" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1023" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1023" s="36" t="s">
-        <v>2602</v>
+        <v>2340</v>
       </c>
       <c r="E1023" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1023" s="38" t="s">
-        <v>2050</v>
+        <v>2310</v>
       </c>
       <c r="G1023" s="36" t="s">
-        <v>2603</v>
+        <v>2337</v>
       </c>
       <c r="H1023" s="36" t="s">
-        <v>2603</v>
+        <v>2337</v>
       </c>
       <c r="I1023" s="36" t="s">
-        <v>2604</v>
+        <v>2341</v>
       </c>
       <c r="J1023" s="38" t="s">
         <v>125</v>
@@ -95221,8 +95223,8 @@
       <c r="N1023" s="39">
         <v>0</v>
       </c>
-      <c r="O1023" s="39">
-        <v>5685370</v>
+      <c r="O1023" s="59">
+        <v>476606</v>
       </c>
       <c r="P1023" s="39">
         <v>0</v>
@@ -95230,31 +95232,31 @@
     </row>
     <row r="1024" spans="1:16">
       <c r="A1024" s="36" t="s">
-        <v>2605</v>
+        <v>2359</v>
       </c>
       <c r="B1024" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1024" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1024" s="36" t="s">
-        <v>2606</v>
+        <v>2360</v>
       </c>
       <c r="E1024" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1024" s="38" t="s">
-        <v>2050</v>
+        <v>2310</v>
       </c>
       <c r="G1024" s="36" t="s">
-        <v>2607</v>
+        <v>2337</v>
       </c>
       <c r="H1024" s="36" t="s">
-        <v>2607</v>
+        <v>2337</v>
       </c>
       <c r="I1024" s="36" t="s">
-        <v>2608</v>
+        <v>745</v>
       </c>
       <c r="J1024" s="38" t="s">
         <v>125</v>
@@ -95271,8 +95273,8 @@
       <c r="N1024" s="39">
         <v>0</v>
       </c>
-      <c r="O1024" s="39">
-        <v>65954812</v>
+      <c r="O1024" s="59">
+        <v>470836</v>
       </c>
       <c r="P1024" s="39">
         <v>0</v>
@@ -95280,31 +95282,31 @@
     </row>
     <row r="1025" spans="1:16">
       <c r="A1025" s="36" t="s">
-        <v>2609</v>
+        <v>1576</v>
       </c>
       <c r="B1025" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1025" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1025" s="36" t="s">
-        <v>2610</v>
+        <v>1577</v>
       </c>
       <c r="E1025" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1025" s="38" t="s">
-        <v>2446</v>
+        <v>1539</v>
       </c>
       <c r="G1025" s="36" t="s">
-        <v>2611</v>
+        <v>1544</v>
       </c>
       <c r="H1025" s="36" t="s">
-        <v>2611</v>
+        <v>1544</v>
       </c>
       <c r="I1025" s="36" t="s">
-        <v>1858</v>
+        <v>1578</v>
       </c>
       <c r="J1025" s="38" t="s">
         <v>125</v>
@@ -95321,8 +95323,8 @@
       <c r="N1025" s="39">
         <v>0</v>
       </c>
-      <c r="O1025" s="39">
-        <v>35733754</v>
+      <c r="O1025" s="59">
+        <v>461222</v>
       </c>
       <c r="P1025" s="39">
         <v>0</v>
@@ -95330,31 +95332,31 @@
     </row>
     <row r="1026" spans="1:16">
       <c r="A1026" s="36" t="s">
-        <v>2843</v>
+        <v>2369</v>
       </c>
       <c r="B1026" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1026" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1026" s="36" t="s">
-        <v>2844</v>
+        <v>2370</v>
       </c>
       <c r="E1026" s="36" t="s">
-        <v>1887</v>
+        <v>208</v>
       </c>
       <c r="F1026" s="38" t="s">
-        <v>2446</v>
+        <v>2310</v>
       </c>
       <c r="G1026" s="36" t="s">
-        <v>2525</v>
+        <v>2337</v>
       </c>
       <c r="H1026" s="36" t="s">
-        <v>2525</v>
+        <v>2337</v>
       </c>
       <c r="I1026" s="36" t="s">
-        <v>2531</v>
+        <v>776</v>
       </c>
       <c r="J1026" s="38" t="s">
         <v>125</v>
@@ -95371,8 +95373,8 @@
       <c r="N1026" s="39">
         <v>0</v>
       </c>
-      <c r="O1026" s="39">
-        <v>20000000</v>
+      <c r="O1026" s="59">
+        <v>450181</v>
       </c>
       <c r="P1026" s="39">
         <v>0</v>
@@ -95380,31 +95382,31 @@
     </row>
     <row r="1027" spans="1:16">
       <c r="A1027" s="36" t="s">
-        <v>2845</v>
+        <v>1546</v>
       </c>
       <c r="B1027" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1027" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1027" s="36" t="s">
-        <v>2846</v>
+        <v>1547</v>
       </c>
       <c r="E1027" s="36" t="s">
-        <v>1887</v>
+        <v>208</v>
       </c>
       <c r="F1027" s="38" t="s">
-        <v>2446</v>
+        <v>1539</v>
       </c>
       <c r="G1027" s="36" t="s">
-        <v>2525</v>
+        <v>1544</v>
       </c>
       <c r="H1027" s="36" t="s">
-        <v>2525</v>
+        <v>1544</v>
       </c>
       <c r="I1027" s="36" t="s">
-        <v>2847</v>
+        <v>1548</v>
       </c>
       <c r="J1027" s="38" t="s">
         <v>125</v>
@@ -95421,8 +95423,8 @@
       <c r="N1027" s="39">
         <v>0</v>
       </c>
-      <c r="O1027" s="39">
-        <v>2689982</v>
+      <c r="O1027" s="59">
+        <v>441655</v>
       </c>
       <c r="P1027" s="39">
         <v>0</v>
@@ -95430,31 +95432,31 @@
     </row>
     <row r="1028" spans="1:16">
       <c r="A1028" s="36" t="s">
-        <v>2848</v>
+        <v>2068</v>
       </c>
       <c r="B1028" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1028" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1028" s="36" t="s">
-        <v>2849</v>
+        <v>2069</v>
       </c>
       <c r="E1028" s="36" t="s">
-        <v>1887</v>
+        <v>208</v>
       </c>
       <c r="F1028" s="38" t="s">
-        <v>2446</v>
+        <v>2050</v>
       </c>
       <c r="G1028" s="36" t="s">
-        <v>2525</v>
+        <v>2070</v>
       </c>
       <c r="H1028" s="36" t="s">
-        <v>2525</v>
+        <v>2070</v>
       </c>
       <c r="I1028" s="36" t="s">
-        <v>2531</v>
+        <v>888</v>
       </c>
       <c r="J1028" s="38" t="s">
         <v>125</v>
@@ -95471,8 +95473,8 @@
       <c r="N1028" s="39">
         <v>0</v>
       </c>
-      <c r="O1028" s="39">
-        <v>15000000</v>
+      <c r="O1028" s="59">
+        <v>429487.66</v>
       </c>
       <c r="P1028" s="39">
         <v>0</v>
@@ -95480,31 +95482,31 @@
     </row>
     <row r="1029" spans="1:16">
       <c r="A1029" s="36" t="s">
-        <v>2850</v>
+        <v>1562</v>
       </c>
       <c r="B1029" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1029" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1029" s="36" t="s">
-        <v>2851</v>
+        <v>1563</v>
       </c>
       <c r="E1029" s="36" t="s">
-        <v>1887</v>
+        <v>208</v>
       </c>
       <c r="F1029" s="38" t="s">
-        <v>2446</v>
+        <v>1539</v>
       </c>
       <c r="G1029" s="36" t="s">
-        <v>2525</v>
+        <v>1544</v>
       </c>
       <c r="H1029" s="36" t="s">
-        <v>2525</v>
+        <v>1544</v>
       </c>
       <c r="I1029" s="36" t="s">
-        <v>2531</v>
+        <v>1564</v>
       </c>
       <c r="J1029" s="38" t="s">
         <v>125</v>
@@ -95521,8 +95523,8 @@
       <c r="N1029" s="39">
         <v>0</v>
       </c>
-      <c r="O1029" s="39">
-        <v>45000000</v>
+      <c r="O1029" s="59">
+        <v>360099</v>
       </c>
       <c r="P1029" s="39">
         <v>0</v>
@@ -95530,31 +95532,31 @@
     </row>
     <row r="1030" spans="1:16">
       <c r="A1030" s="36" t="s">
-        <v>2852</v>
+        <v>2356</v>
       </c>
       <c r="B1030" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1030" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1030" s="36" t="s">
-        <v>2853</v>
+        <v>2357</v>
       </c>
       <c r="E1030" s="36" t="s">
-        <v>1887</v>
+        <v>208</v>
       </c>
       <c r="F1030" s="38" t="s">
-        <v>2446</v>
+        <v>2310</v>
       </c>
       <c r="G1030" s="36" t="s">
-        <v>2525</v>
+        <v>2337</v>
       </c>
       <c r="H1030" s="36" t="s">
-        <v>2525</v>
+        <v>2337</v>
       </c>
       <c r="I1030" s="36" t="s">
-        <v>2526</v>
+        <v>2358</v>
       </c>
       <c r="J1030" s="38" t="s">
         <v>125</v>
@@ -95571,8 +95573,8 @@
       <c r="N1030" s="39">
         <v>0</v>
       </c>
-      <c r="O1030" s="39">
-        <v>20000000</v>
+      <c r="O1030" s="59">
+        <v>325376</v>
       </c>
       <c r="P1030" s="39">
         <v>0</v>
@@ -95580,31 +95582,31 @@
     </row>
     <row r="1031" spans="1:16">
       <c r="A1031" s="36" t="s">
-        <v>2854</v>
+        <v>555</v>
       </c>
       <c r="B1031" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1031" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1031" s="36" t="s">
-        <v>2855</v>
+        <v>556</v>
       </c>
       <c r="E1031" s="36" t="s">
-        <v>1887</v>
+        <v>208</v>
       </c>
       <c r="F1031" s="38" t="s">
-        <v>2446</v>
+        <v>546</v>
       </c>
       <c r="G1031" s="36" t="s">
-        <v>2525</v>
+        <v>557</v>
       </c>
       <c r="H1031" s="36" t="s">
-        <v>2525</v>
+        <v>557</v>
       </c>
       <c r="I1031" s="36" t="s">
-        <v>2526</v>
+        <v>548</v>
       </c>
       <c r="J1031" s="38" t="s">
         <v>125</v>
@@ -95621,8 +95623,8 @@
       <c r="N1031" s="39">
         <v>0</v>
       </c>
-      <c r="O1031" s="39">
-        <v>10000000</v>
+      <c r="O1031" s="59">
+        <v>311056</v>
       </c>
       <c r="P1031" s="39">
         <v>0</v>
@@ -95630,7 +95632,7 @@
     </row>
     <row r="1032" spans="1:16">
       <c r="A1032" s="36" t="s">
-        <v>2856</v>
+        <v>2593</v>
       </c>
       <c r="B1032" s="37" t="s">
         <v>2545</v>
@@ -95639,22 +95641,22 @@
         <v>2546</v>
       </c>
       <c r="D1032" s="36" t="s">
-        <v>2857</v>
+        <v>2594</v>
       </c>
       <c r="E1032" s="36" t="s">
-        <v>1887</v>
+        <v>208</v>
       </c>
       <c r="F1032" s="38" t="s">
-        <v>2446</v>
+        <v>1839</v>
       </c>
       <c r="G1032" s="36" t="s">
-        <v>2525</v>
+        <v>2595</v>
       </c>
       <c r="H1032" s="36" t="s">
-        <v>2525</v>
+        <v>2595</v>
       </c>
       <c r="I1032" s="36" t="s">
-        <v>2536</v>
+        <v>2596</v>
       </c>
       <c r="J1032" s="38" t="s">
         <v>125</v>
@@ -95672,7 +95674,7 @@
         <v>0</v>
       </c>
       <c r="O1032" s="39">
-        <v>2212407.7000000002</v>
+        <v>300000</v>
       </c>
       <c r="P1032" s="39">
         <v>0</v>
@@ -95680,31 +95682,31 @@
     </row>
     <row r="1033" spans="1:16">
       <c r="A1033" s="36" t="s">
-        <v>2860</v>
+        <v>552</v>
       </c>
       <c r="B1033" s="37" t="s">
-        <v>2545</v>
+        <v>118</v>
       </c>
       <c r="C1033" s="36" t="s">
-        <v>2546</v>
+        <v>119</v>
       </c>
       <c r="D1033" s="36" t="s">
-        <v>2861</v>
+        <v>553</v>
       </c>
       <c r="E1033" s="36" t="s">
-        <v>1887</v>
+        <v>208</v>
       </c>
       <c r="F1033" s="38" t="s">
-        <v>2446</v>
+        <v>546</v>
       </c>
       <c r="G1033" s="36" t="s">
-        <v>2525</v>
+        <v>554</v>
       </c>
       <c r="H1033" s="36" t="s">
-        <v>2525</v>
+        <v>554</v>
       </c>
       <c r="I1033" s="36" t="s">
-        <v>2526</v>
+        <v>548</v>
       </c>
       <c r="J1033" s="38" t="s">
         <v>125</v>
@@ -95721,8 +95723,8 @@
       <c r="N1033" s="39">
         <v>0</v>
       </c>
-      <c r="O1033" s="39">
-        <v>25000000</v>
+      <c r="O1033" s="59">
+        <v>158454</v>
       </c>
       <c r="P1033" s="39">
         <v>0</v>
@@ -95730,31 +95732,31 @@
     </row>
     <row r="1034" spans="1:16">
       <c r="A1034" s="36" t="s">
-        <v>2888</v>
+        <v>1859</v>
       </c>
       <c r="B1034" s="37" t="s">
-        <v>2864</v>
+        <v>118</v>
       </c>
       <c r="C1034" s="36" t="s">
-        <v>2865</v>
+        <v>119</v>
       </c>
       <c r="D1034" s="36" t="s">
-        <v>2889</v>
+        <v>1860</v>
       </c>
       <c r="E1034" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F1034" s="38" t="s">
-        <v>1451</v>
+        <v>1839</v>
       </c>
       <c r="G1034" s="36" t="s">
-        <v>2890</v>
+        <v>1861</v>
       </c>
       <c r="H1034" s="36" t="s">
-        <v>2890</v>
+        <v>1861</v>
       </c>
       <c r="I1034" s="36" t="s">
-        <v>2891</v>
+        <v>1862</v>
       </c>
       <c r="J1034" s="38" t="s">
         <v>125</v>
@@ -95771,8 +95773,8 @@
       <c r="N1034" s="39">
         <v>0</v>
       </c>
-      <c r="O1034" s="39">
-        <v>1106622</v>
+      <c r="O1034" s="59">
+        <v>150000</v>
       </c>
       <c r="P1034" s="39">
         <v>0</v>
@@ -95780,7 +95782,7 @@
     </row>
     <row r="1035" spans="1:16">
       <c r="A1035" s="36" t="s">
-        <v>2892</v>
+        <v>2895</v>
       </c>
       <c r="B1035" s="37" t="s">
         <v>2864</v>
@@ -95789,7 +95791,7 @@
         <v>2865</v>
       </c>
       <c r="D1035" s="36" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
       <c r="E1035" s="36" t="s">
         <v>1887</v>
@@ -95804,7 +95806,7 @@
         <v>2525</v>
       </c>
       <c r="I1035" s="36" t="s">
-        <v>2894</v>
+        <v>2897</v>
       </c>
       <c r="J1035" s="38" t="s">
         <v>125</v>
@@ -95822,7 +95824,7 @@
         <v>0</v>
       </c>
       <c r="O1035" s="39">
-        <v>6579000</v>
+        <v>105434.28</v>
       </c>
       <c r="P1035" s="39">
         <v>0</v>
@@ -95830,31 +95832,31 @@
     </row>
     <row r="1036" spans="1:16">
       <c r="A1036" s="36" t="s">
-        <v>2895</v>
+        <v>544</v>
       </c>
       <c r="B1036" s="37" t="s">
-        <v>2864</v>
+        <v>118</v>
       </c>
       <c r="C1036" s="36" t="s">
-        <v>2865</v>
+        <v>119</v>
       </c>
       <c r="D1036" s="36" t="s">
-        <v>2896</v>
+        <v>545</v>
       </c>
       <c r="E1036" s="36" t="s">
-        <v>1887</v>
+        <v>208</v>
       </c>
       <c r="F1036" s="38" t="s">
-        <v>2446</v>
+        <v>546</v>
       </c>
       <c r="G1036" s="36" t="s">
-        <v>2525</v>
+        <v>547</v>
       </c>
       <c r="H1036" s="36" t="s">
-        <v>2525</v>
+        <v>547</v>
       </c>
       <c r="I1036" s="36" t="s">
-        <v>2897</v>
+        <v>548</v>
       </c>
       <c r="J1036" s="38" t="s">
         <v>125</v>
@@ -95871,8 +95873,8 @@
       <c r="N1036" s="39">
         <v>0</v>
       </c>
-      <c r="O1036" s="39">
-        <v>105434.28</v>
+      <c r="O1036" s="59">
+        <v>48074</v>
       </c>
       <c r="P1036" s="39">
         <v>0</v>
@@ -95880,31 +95882,31 @@
     </row>
     <row r="1037" spans="1:16">
       <c r="A1037" s="36" t="s">
-        <v>2900</v>
+        <v>549</v>
       </c>
       <c r="B1037" s="37" t="s">
-        <v>2864</v>
+        <v>118</v>
       </c>
       <c r="C1037" s="36" t="s">
-        <v>2865</v>
+        <v>119</v>
       </c>
       <c r="D1037" s="36" t="s">
-        <v>2901</v>
+        <v>550</v>
       </c>
       <c r="E1037" s="36" t="s">
-        <v>1887</v>
+        <v>208</v>
       </c>
       <c r="F1037" s="38" t="s">
-        <v>2446</v>
+        <v>546</v>
       </c>
       <c r="G1037" s="36" t="s">
-        <v>2525</v>
+        <v>551</v>
       </c>
       <c r="H1037" s="36" t="s">
-        <v>2525</v>
+        <v>551</v>
       </c>
       <c r="I1037" s="36" t="s">
-        <v>2894</v>
+        <v>548</v>
       </c>
       <c r="J1037" s="38" t="s">
         <v>125</v>
@@ -95921,8 +95923,8 @@
       <c r="N1037" s="39">
         <v>0</v>
       </c>
-      <c r="O1037" s="39">
-        <v>2245000</v>
+      <c r="O1037" s="59">
+        <v>31290</v>
       </c>
       <c r="P1037" s="39">
         <v>0</v>
